--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D2A31A36-C2E3-4D88-9051-B8EEB2B2DF46}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A84B6365-90C4-4015-994C-8A4E32C6EB84}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="380" windowWidth="19040" windowHeight="10130" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="401">
   <si>
     <t>file_type</t>
   </si>
@@ -546,9 +546,6 @@
     <t>victor.smetacek@awi.de - uriebesell@geomar.de - polarstern-coordination@awi.de</t>
   </si>
   <si>
-    <t>10.1594/PANGAEA.126293; 10.1594/PANGAEA.126294; 10.1594/PANGAEA.126295</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -1122,12 +1119,6 @@
     <t>10.4225/15/54979A67E82D9</t>
   </si>
   <si>
-    <t>06AQ20161215</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/SeaBASS/06AQ20161215/HPLC</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -1135,13 +1126,124 @@
   </si>
   <si>
     <t>hour-minute</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>06AQ19850103_pig</t>
+  </si>
+  <si>
+    <t>06AQ19860627_pig</t>
+  </si>
+  <si>
+    <t>06AQ19881122_pig</t>
+  </si>
+  <si>
+    <t>06AQ19920929_pig1</t>
+  </si>
+  <si>
+    <t>06AQ19920929_pig2</t>
+  </si>
+  <si>
+    <t>06AQ20011024_pig1</t>
+  </si>
+  <si>
+    <t>06AQ20011024_pig2</t>
+  </si>
+  <si>
+    <t>06AQ20011024_pig3; 06AQ20011024_pig4; 06AQ20011024_pig5; 06AQ20011024_pig6; 06AQ20011024_pig7; 06AQ20011024_pig8; 06AQ20011024_pig9</t>
+  </si>
+  <si>
+    <t>10.1594/PANGAEA.126293; 10.1594/PANGAEA.126294; 10.1594/PANGAEA.126295; 10.1594/PANGAEA.126296; 10.1594/PANGAEA.126297; 10.1594/PANGAEA.126298; 10.1594/PANGAEA.126299</t>
+  </si>
+  <si>
+    <t>06AQ20040121_pig1</t>
+  </si>
+  <si>
+    <t>06AQ20040121_pig2</t>
+  </si>
+  <si>
+    <t>06AQ20100129_pig2</t>
+  </si>
+  <si>
+    <t>06AQ20071128_pig</t>
+  </si>
+  <si>
+    <t>06AQ20080418_pig</t>
+  </si>
+  <si>
+    <t>06AQ20100129_pig1</t>
+  </si>
+  <si>
+    <t>06AQ20100407_pig</t>
+  </si>
+  <si>
+    <t>06AQ20120107_pig</t>
+  </si>
+  <si>
+    <t>06AQ20130814_pig</t>
+  </si>
+  <si>
+    <t>06AQ20181215</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/SeaBASS/06AQ20181215/HPLC</t>
+  </si>
+  <si>
+    <t>SOCCOM_pig</t>
+  </si>
+  <si>
+    <t>096U20160107_pig</t>
+  </si>
+  <si>
+    <t>GLODAPv2.2020_pig1; GLODAPv2.2020_pig2</t>
+  </si>
+  <si>
+    <t>096U20160314_pig</t>
+  </si>
+  <si>
+    <t>096U20160426_pig</t>
+  </si>
+  <si>
+    <t>09AR19910103_pig</t>
+  </si>
+  <si>
+    <t>09AR19910925_pig</t>
+  </si>
+  <si>
+    <t>09AR19911201_pig</t>
+  </si>
+  <si>
+    <t>09AR19930105_pig</t>
+  </si>
+  <si>
+    <t>09AR19930311_pig</t>
+  </si>
+  <si>
+    <t>09AR19931119_pig</t>
+  </si>
+  <si>
+    <t>09AR19940101_pig</t>
+  </si>
+  <si>
+    <t>09AR19950717_pig</t>
+  </si>
+  <si>
+    <t>09AR19960119_pig</t>
+  </si>
+  <si>
+    <t>09AR19980228_pig</t>
+  </si>
+  <si>
+    <t>09AR19990713_pig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,12 +1263,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1190,14 +1286,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1513,15 +1608,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
-  <dimension ref="A1:BU38"/>
+  <dimension ref="A1:BV38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,196 +1651,199 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:74">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1774,46 +1875,49 @@
         <v>109</v>
       </c>
       <c r="K2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" t="s">
         <v>110</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>111</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>112</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>113</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>114</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>113</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="2" customFormat="1">
+    <row r="3" spans="1:74" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1845,49 +1949,52 @@
         <v>123</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:74">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1919,25 +2026,28 @@
         <v>129</v>
       </c>
       <c r="K4" t="s">
+        <v>367</v>
+      </c>
+      <c r="L4" t="s">
         <v>130</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>111</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>112</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>118</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>119</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:74">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1969,106 +2079,109 @@
         <v>134</v>
       </c>
       <c r="K5" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" t="s">
         <v>135</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>111</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>112</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>113</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>114</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>113</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>114</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>136</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>116</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>137</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>118</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>138</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>139</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>140</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>141</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>142</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>40</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>143</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>48</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>144</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>145</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>146</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>53</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>147</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>148</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>149</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>150</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BT5" t="s">
         <v>151</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:74">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2100,55 +2213,58 @@
         <v>154</v>
       </c>
       <c r="K6" t="s">
+        <v>369</v>
+      </c>
+      <c r="L6" t="s">
         <v>155</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>111</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>112</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>113</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>114</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>113</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>114</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>115</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>116</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>117</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>118</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>119</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>36</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:74">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -2180,52 +2296,55 @@
         <v>159</v>
       </c>
       <c r="K7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L7" t="s">
         <v>160</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>161</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>111</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>112</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>113</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>114</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>113</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>114</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>116</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>117</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>118</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>119</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:74">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2257,70 +2376,73 @@
         <v>165</v>
       </c>
       <c r="K8" t="s">
+        <v>371</v>
+      </c>
+      <c r="L8" t="s">
         <v>166</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>111</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>112</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>113</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>114</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>113</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>114</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>115</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>116</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>117</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>118</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>119</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>36</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>40</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>144</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>145</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>146</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>53</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>148</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:74">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2349,57 +2471,60 @@
         <v>169</v>
       </c>
       <c r="J9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K9" t="s">
+        <v>372</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P9" t="s">
         <v>170</v>
       </c>
-      <c r="K9" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" t="s">
         <v>171</v>
       </c>
-      <c r="P9" t="s">
-        <v>111</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>113</v>
       </c>
-      <c r="U9" t="s">
-        <v>172</v>
-      </c>
-      <c r="V9" t="s">
-        <v>113</v>
-      </c>
-      <c r="W9" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="X9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z9" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>116</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>117</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>118</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>119</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>36</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:74">
       <c r="A10" t="s">
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -2423,75 +2548,78 @@
         <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
+        <v>374</v>
+      </c>
+      <c r="L10" t="s">
         <v>166</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>111</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>112</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>113</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>114</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>113</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>115</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>117</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>118</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>119</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>36</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>40</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>144</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>145</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>146</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>53</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:74">
       <c r="A11" t="s">
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -2515,75 +2643,78 @@
         <v>164</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K11" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" t="s">
         <v>166</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
-        <v>171</v>
-      </c>
       <c r="P11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" t="s">
         <v>111</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>113</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>114</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>113</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>115</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>116</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>117</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>118</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>119</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>36</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>40</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>144</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>145</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>146</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>53</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:74">
       <c r="A12" t="s">
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -2607,87 +2738,90 @@
         <v>164</v>
       </c>
       <c r="J12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" t="s">
+        <v>113</v>
+      </c>
+      <c r="V12" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK12" t="s">
         <v>178</v>
       </c>
-      <c r="K12" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R12" t="s">
-        <v>112</v>
-      </c>
-      <c r="T12" t="s">
-        <v>113</v>
-      </c>
-      <c r="U12" t="s">
-        <v>114</v>
-      </c>
-      <c r="V12" t="s">
-        <v>113</v>
-      </c>
-      <c r="W12" t="s">
-        <v>114</v>
-      </c>
-      <c r="X12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AL12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>179</v>
       </c>
-      <c r="AK12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>144</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>145</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>146</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>53</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>148</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:74">
       <c r="A13" t="s">
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -2702,135 +2836,138 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
         <v>107</v>
       </c>
       <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
         <v>183</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" t="s">
         <v>184</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
         <v>185</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI13" t="s">
         <v>186</v>
       </c>
-      <c r="P13" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" t="s">
-        <v>112</v>
-      </c>
-      <c r="T13" t="s">
-        <v>113</v>
-      </c>
-      <c r="U13" t="s">
-        <v>172</v>
-      </c>
-      <c r="V13" t="s">
-        <v>113</v>
-      </c>
-      <c r="W13" t="s">
-        <v>172</v>
-      </c>
-      <c r="X13" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AK13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM13" t="s">
         <v>187</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AP13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>179</v>
       </c>
-      <c r="AK13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="s">
+      <c r="AW13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF13" t="s">
         <v>188</v>
       </c>
-      <c r="AO13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE13" t="s">
+      <c r="BG13" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI13" t="s">
         <v>189</v>
       </c>
-      <c r="BF13" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH13" t="s">
+      <c r="BJ13" t="s">
         <v>190</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
         <v>191</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BO13" t="s">
         <v>192</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BP13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ13" t="s">
         <v>193</v>
       </c>
-      <c r="BO13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>194</v>
-      </c>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:74">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -2854,78 +2991,81 @@
         <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
+        <v>379</v>
+      </c>
+      <c r="L14" t="s">
         <v>166</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>111</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>112</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>113</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>114</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>113</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>114</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>116</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>117</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>119</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>36</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>40</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>144</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>145</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>146</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>53</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
         <v>148</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BG14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:74">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -2949,78 +3089,81 @@
         <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
-        <v>171</v>
-      </c>
       <c r="P15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15" t="s">
         <v>111</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>113</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>114</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>113</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>115</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>116</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>117</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>118</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>119</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>36</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>40</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>144</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>145</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>146</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>53</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>148</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BG15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:74">
       <c r="A16" t="s">
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
@@ -3035,135 +3178,138 @@
         <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
         <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" t="s">
+        <v>380</v>
+      </c>
+      <c r="L16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>185</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" t="s">
+        <v>112</v>
+      </c>
+      <c r="U16" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" t="s">
+        <v>114</v>
+      </c>
+      <c r="W16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI16" t="s">
         <v>186</v>
       </c>
-      <c r="P16" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" t="s">
-        <v>112</v>
-      </c>
-      <c r="T16" t="s">
-        <v>113</v>
-      </c>
-      <c r="U16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V16" t="s">
-        <v>113</v>
-      </c>
-      <c r="W16" t="s">
-        <v>114</v>
-      </c>
-      <c r="X16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AK16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM16" t="s">
         <v>187</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AP16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>179</v>
       </c>
-      <c r="AK16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL16" t="s">
+      <c r="AW16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF16" t="s">
         <v>188</v>
       </c>
-      <c r="AO16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE16" t="s">
+      <c r="BG16" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI16" t="s">
         <v>189</v>
       </c>
-      <c r="BF16" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH16" t="s">
+      <c r="BJ16" t="s">
         <v>190</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BK16" t="s">
         <v>191</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BO16" t="s">
         <v>192</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BP16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>193</v>
       </c>
-      <c r="BO16" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>194</v>
-      </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:74">
       <c r="A17" t="s">
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -3178,144 +3324,147 @@
         <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" t="s">
+        <v>381</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>202</v>
       </c>
-      <c r="K17" t="s">
-        <v>185</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>186</v>
-      </c>
-      <c r="P17" t="s">
-        <v>111</v>
-      </c>
-      <c r="R17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" t="s">
-        <v>114</v>
-      </c>
-      <c r="V17" t="s">
-        <v>113</v>
-      </c>
-      <c r="W17" t="s">
-        <v>114</v>
-      </c>
-      <c r="X17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI17" t="s">
+      <c r="BK17" t="s">
         <v>203</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BO17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT17" t="s">
         <v>204</v>
       </c>
-      <c r="BN17" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS17" t="s">
+      <c r="BU17" t="s">
         <v>205</v>
       </c>
-      <c r="BT17" t="s">
-        <v>206</v>
-      </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:74">
       <c r="A18" t="s">
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -3330,2213 +3479,2276 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H18" t="s">
         <v>107</v>
       </c>
       <c r="I18" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" t="s">
         <v>209</v>
       </c>
-      <c r="J18" t="s">
-        <v>210</v>
-      </c>
       <c r="K18" t="s">
+        <v>382</v>
+      </c>
+      <c r="L18" t="s">
         <v>166</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>111</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>112</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>113</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>114</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>113</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>114</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>115</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>117</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>118</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>119</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:74">
       <c r="A19" t="s">
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" t="s">
         <v>211</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" t="s">
         <v>212</v>
       </c>
-      <c r="E19" t="s">
-        <v>362</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>213</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>214</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>215</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>216</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>385</v>
+      </c>
+      <c r="L19" t="s">
         <v>217</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19">
+        <v>-9999</v>
+      </c>
+      <c r="O19">
+        <v>-8888</v>
+      </c>
+      <c r="Q19" t="s">
         <v>218</v>
       </c>
-      <c r="M19">
-        <v>-9999</v>
-      </c>
-      <c r="N19">
-        <v>-8888</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="S19" t="s">
         <v>219</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" t="s">
         <v>220</v>
       </c>
-      <c r="T19" t="s">
+      <c r="W19" t="s">
         <v>221</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>222</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" t="s">
         <v>223</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>224</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>225</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC19" t="s">
         <v>226</v>
       </c>
-      <c r="AA19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>227</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>228</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AI19" t="s">
         <v>229</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AK19" t="s">
         <v>230</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
         <v>231</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>232</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AP19" t="s">
         <v>233</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AQ19" t="s">
         <v>234</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AS19" t="s">
         <v>235</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AX19" t="s">
         <v>236</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AZ19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN19" t="s">
         <v>237</v>
       </c>
-      <c r="AY19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM19" t="s">
+      <c r="BO19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV19" t="s">
         <v>238</v>
       </c>
-      <c r="BN19" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:74">
       <c r="A20" t="s">
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" t="s">
         <v>211</v>
-      </c>
-      <c r="D20" t="s">
-        <v>212</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
       </c>
       <c r="F20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" t="s">
         <v>213</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>214</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>215</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>216</v>
       </c>
-      <c r="J20" t="s">
-        <v>217</v>
-      </c>
       <c r="K20" t="s">
+        <v>385</v>
+      </c>
+      <c r="L20" t="s">
+        <v>240</v>
+      </c>
+      <c r="N20">
+        <v>-9999</v>
+      </c>
+      <c r="O20">
+        <v>-8888</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U20" t="s">
+        <v>220</v>
+      </c>
+      <c r="W20" t="s">
+        <v>221</v>
+      </c>
+      <c r="X20" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV20" t="s">
         <v>241</v>
       </c>
-      <c r="M20">
-        <v>-9999</v>
-      </c>
-      <c r="N20">
-        <v>-8888</v>
-      </c>
-      <c r="P20" t="s">
-        <v>219</v>
-      </c>
-      <c r="R20" t="s">
-        <v>220</v>
-      </c>
-      <c r="T20" t="s">
-        <v>221</v>
-      </c>
-      <c r="V20" t="s">
-        <v>222</v>
-      </c>
-      <c r="W20" t="s">
-        <v>223</v>
-      </c>
-      <c r="X20" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU20" t="s">
+      <c r="AX20" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV20" t="s">
         <v>242</v>
       </c>
-      <c r="AW20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>238</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>243</v>
-      </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:74">
       <c r="A21" t="s">
         <v>101</v>
       </c>
       <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" t="s">
         <v>244</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" t="s">
-        <v>245</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" t="s">
         <v>246</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="K21" t="s">
-        <v>278</v>
-      </c>
-      <c r="P21" t="s">
+        <v>387</v>
+      </c>
+      <c r="L21" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q21" t="s">
         <v>111</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
+        <v>219</v>
+      </c>
+      <c r="U21" t="s">
         <v>220</v>
       </c>
-      <c r="T21" t="s">
-        <v>221</v>
-      </c>
-      <c r="V21" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>364</v>
+      <c r="W21" t="s">
+        <v>363</v>
       </c>
       <c r="Z21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AA21" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB21" t="s">
         <v>117</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE21" t="s">
         <v>228</v>
       </c>
-      <c r="AD21" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>298</v>
+      <c r="AF21" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:74">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K22" t="s">
-        <v>279</v>
-      </c>
-      <c r="M22">
+        <v>386</v>
+      </c>
+      <c r="L22" t="s">
+        <v>278</v>
+      </c>
+      <c r="N22">
         <v>-999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>111</v>
       </c>
-      <c r="R22" t="s">
-        <v>257</v>
-      </c>
-      <c r="T22" t="s">
-        <v>255</v>
+      <c r="S22" t="s">
+        <v>256</v>
       </c>
       <c r="U22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V22" t="s">
         <v>255</v>
       </c>
       <c r="W22" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y22" t="s">
+        <v>254</v>
+      </c>
+      <c r="X22" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z22" t="s">
         <v>115</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>116</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>117</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>118</v>
       </c>
-      <c r="AD22" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="AE22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK22" t="s">
         <v>258</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AL22" t="s">
         <v>259</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AM22" t="s">
         <v>260</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AP22" t="s">
         <v>261</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AQ22" t="s">
         <v>262</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AT22" t="s">
         <v>263</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AV22" t="s">
         <v>264</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AW22" t="s">
         <v>265</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AX22" t="s">
         <v>266</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AY22" t="s">
         <v>267</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AZ22" t="s">
         <v>268</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="BA22" t="s">
         <v>269</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BB22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ22" t="s">
         <v>270</v>
       </c>
-      <c r="BA22" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI22" t="s">
+      <c r="BK22" t="s">
         <v>271</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BN22" t="s">
         <v>272</v>
       </c>
-      <c r="BM22" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN22" t="s">
+      <c r="BO22" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ22" t="s">
         <v>193</v>
       </c>
-      <c r="BO22" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP22" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS22" t="s">
+      <c r="BT22" t="s">
         <v>70</v>
       </c>
-      <c r="BT22" t="s">
+      <c r="BU22" t="s">
         <v>71</v>
       </c>
-      <c r="BU22" t="s">
-        <v>243</v>
+      <c r="BV22" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:74">
       <c r="A23" t="s">
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" t="s">
         <v>246</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="K23" t="s">
-        <v>279</v>
-      </c>
-      <c r="M23">
+        <v>388</v>
+      </c>
+      <c r="L23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N23">
         <v>-999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>111</v>
       </c>
-      <c r="R23" t="s">
-        <v>257</v>
-      </c>
-      <c r="T23" t="s">
-        <v>255</v>
+      <c r="S23" t="s">
+        <v>256</v>
       </c>
       <c r="U23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V23" t="s">
         <v>255</v>
       </c>
       <c r="W23" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y23" t="s">
+        <v>254</v>
+      </c>
+      <c r="X23" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z23" t="s">
         <v>115</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>116</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>117</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>118</v>
       </c>
-      <c r="AD23" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="AE23" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK23" t="s">
         <v>258</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AL23" t="s">
         <v>259</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AM23" t="s">
         <v>260</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AP23" t="s">
         <v>261</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AQ23" t="s">
         <v>262</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AT23" t="s">
         <v>263</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AV23" t="s">
         <v>264</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AW23" t="s">
         <v>265</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AX23" t="s">
         <v>266</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AY23" t="s">
         <v>267</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AZ23" t="s">
         <v>268</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BA23" t="s">
         <v>269</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BB23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ23" t="s">
         <v>270</v>
       </c>
-      <c r="BA23" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI23" t="s">
+      <c r="BK23" t="s">
         <v>271</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BN23" t="s">
         <v>272</v>
       </c>
-      <c r="BM23" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN23" t="s">
+      <c r="BO23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>193</v>
       </c>
-      <c r="BO23" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS23" t="s">
+      <c r="BT23" t="s">
         <v>70</v>
       </c>
-      <c r="BT23" t="s">
+      <c r="BU23" t="s">
         <v>71</v>
       </c>
-      <c r="BU23" t="s">
-        <v>243</v>
+      <c r="BV23" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:74">
       <c r="A24" t="s">
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" t="s">
         <v>211</v>
-      </c>
-      <c r="D24" t="s">
-        <v>212</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
         <v>213</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>214</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>215</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>216</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>385</v>
+      </c>
+      <c r="L24" t="s">
         <v>217</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24">
+        <v>-9999</v>
+      </c>
+      <c r="O24">
+        <v>-8888</v>
+      </c>
+      <c r="Q24" t="s">
         <v>218</v>
       </c>
-      <c r="M24">
-        <v>-9999</v>
-      </c>
-      <c r="N24">
-        <v>-8888</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
         <v>219</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>220</v>
       </c>
-      <c r="T24" t="s">
+      <c r="W24" t="s">
         <v>221</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>222</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
         <v>223</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>224</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" t="s">
         <v>225</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC24" t="s">
         <v>226</v>
       </c>
-      <c r="AA24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>227</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>228</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AI24" t="s">
         <v>229</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AK24" t="s">
         <v>230</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>231</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
         <v>232</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AP24" t="s">
         <v>233</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AQ24" t="s">
         <v>234</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AS24" t="s">
         <v>235</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AX24" t="s">
         <v>236</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AZ24" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN24" t="s">
         <v>237</v>
       </c>
-      <c r="AY24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM24" t="s">
+      <c r="BO24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV24" t="s">
         <v>238</v>
       </c>
-      <c r="BN24" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:74">
       <c r="A25" t="s">
         <v>101</v>
       </c>
       <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" t="s">
         <v>250</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" t="s">
-        <v>251</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" t="s">
         <v>252</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>253</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="N25">
+        <v>-999</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>111</v>
+      </c>
+      <c r="U25" t="s">
         <v>254</v>
-      </c>
-      <c r="K25" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25">
-        <v>-999</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>171</v>
-      </c>
-      <c r="P25" t="s">
-        <v>111</v>
-      </c>
-      <c r="T25" t="s">
-        <v>255</v>
-      </c>
-      <c r="U25" t="s">
-        <v>256</v>
       </c>
       <c r="V25" t="s">
         <v>255</v>
       </c>
       <c r="W25" t="s">
+        <v>254</v>
+      </c>
+      <c r="X25" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y25" t="s">
         <v>256</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI25" t="s">
         <v>257</v>
       </c>
-      <c r="Y25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="AK25" t="s">
         <v>258</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AL25" t="s">
         <v>259</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AM25" t="s">
         <v>260</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AP25" t="s">
         <v>261</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AQ25" t="s">
         <v>262</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AT25" t="s">
         <v>263</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AV25" t="s">
         <v>264</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AW25" t="s">
         <v>265</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AX25" t="s">
         <v>266</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AY25" t="s">
         <v>267</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AZ25" t="s">
         <v>268</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="BA25" t="s">
         <v>269</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BB25" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ25" t="s">
         <v>270</v>
       </c>
-      <c r="BA25" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI25" t="s">
+      <c r="BK25" t="s">
         <v>271</v>
       </c>
-      <c r="BJ25" t="s">
+      <c r="BN25" t="s">
         <v>272</v>
       </c>
-      <c r="BM25" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN25" t="s">
+      <c r="BO25" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ25" t="s">
         <v>193</v>
       </c>
-      <c r="BO25" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS25" t="s">
+      <c r="BT25" t="s">
         <v>70</v>
       </c>
-      <c r="BT25" t="s">
+      <c r="BU25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:74">
       <c r="A26" t="s">
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" t="s">
         <v>211</v>
-      </c>
-      <c r="D26" t="s">
-        <v>212</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
       </c>
       <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
         <v>213</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>214</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>215</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>216</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>385</v>
+      </c>
+      <c r="L26" t="s">
         <v>217</v>
       </c>
-      <c r="K26" t="s">
+      <c r="N26">
+        <v>-9999</v>
+      </c>
+      <c r="O26">
+        <v>-8888</v>
+      </c>
+      <c r="Q26" t="s">
         <v>218</v>
       </c>
-      <c r="M26">
-        <v>-9999</v>
-      </c>
-      <c r="N26">
-        <v>-8888</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="S26" t="s">
         <v>219</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" t="s">
         <v>220</v>
       </c>
-      <c r="T26" t="s">
+      <c r="W26" t="s">
         <v>221</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>222</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Y26" t="s">
         <v>223</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>224</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>225</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AB26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC26" t="s">
         <v>226</v>
       </c>
-      <c r="AA26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
         <v>227</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>228</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AI26" t="s">
         <v>229</v>
       </c>
-      <c r="AH26" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM26" t="s">
         <v>232</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AP26" t="s">
         <v>233</v>
       </c>
-      <c r="AO26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX26" t="s">
         <v>236</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AZ26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN26" t="s">
         <v>237</v>
       </c>
-      <c r="AY26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM26" t="s">
+      <c r="BO26" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV26" t="s">
         <v>238</v>
       </c>
-      <c r="BN26" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:74">
       <c r="A27" t="s">
         <v>101</v>
       </c>
       <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" t="s">
         <v>282</v>
-      </c>
-      <c r="C27" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" t="s">
-        <v>283</v>
       </c>
       <c r="E27" t="s">
         <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" t="s">
         <v>284</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>285</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>286</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>390</v>
+      </c>
+      <c r="L27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" t="s">
         <v>287</v>
       </c>
-      <c r="K27" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>288</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S27" t="s">
         <v>289</v>
       </c>
-      <c r="P27" t="s">
-        <v>111</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="U27" t="s">
         <v>290</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>291</v>
       </c>
-      <c r="U27" t="s">
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
         <v>292</v>
       </c>
-      <c r="V27" t="s">
-        <v>255</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD27" t="s">
         <v>293</v>
       </c>
-      <c r="X27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK27" t="s">
+      <c r="AE27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:74">
       <c r="A28" t="s">
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" t="s">
         <v>284</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>285</v>
       </c>
-      <c r="I28" t="s">
-        <v>286</v>
-      </c>
       <c r="J28" t="s">
+        <v>295</v>
+      </c>
+      <c r="K28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" t="s">
+        <v>135</v>
+      </c>
+      <c r="N28" t="s">
+        <v>287</v>
+      </c>
+      <c r="P28" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>111</v>
+      </c>
+      <c r="S28" t="s">
+        <v>289</v>
+      </c>
+      <c r="U28" t="s">
+        <v>290</v>
+      </c>
+      <c r="V28" t="s">
+        <v>291</v>
+      </c>
+      <c r="W28" t="s">
+        <v>254</v>
+      </c>
+      <c r="X28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC28" t="s">
         <v>296</v>
       </c>
-      <c r="K28" t="s">
-        <v>135</v>
-      </c>
-      <c r="M28" t="s">
-        <v>288</v>
-      </c>
-      <c r="O28" t="s">
-        <v>289</v>
-      </c>
-      <c r="P28" t="s">
-        <v>111</v>
-      </c>
-      <c r="R28" t="s">
-        <v>290</v>
-      </c>
-      <c r="T28" t="s">
-        <v>291</v>
-      </c>
-      <c r="U28" t="s">
-        <v>292</v>
-      </c>
-      <c r="V28" t="s">
-        <v>255</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="AD28" t="s">
         <v>293</v>
       </c>
-      <c r="X28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="AE28" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL28" t="s">
         <v>297</v>
       </c>
-      <c r="AC28" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:74">
       <c r="A29" t="s">
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
+        <v>283</v>
+      </c>
+      <c r="H29" t="s">
         <v>284</v>
       </c>
-      <c r="H29" t="s">
-        <v>285</v>
-      </c>
       <c r="J29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K29" t="s">
+        <v>392</v>
+      </c>
+      <c r="L29" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>111</v>
+      </c>
+      <c r="U29" t="s">
         <v>300</v>
       </c>
-      <c r="K29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s">
-        <v>171</v>
-      </c>
-      <c r="P29" t="s">
-        <v>111</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="V29" t="s">
         <v>301</v>
       </c>
-      <c r="U29" t="s">
+      <c r="Y29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z29" t="s">
         <v>302</v>
       </c>
-      <c r="X29" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>303</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AB29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL29" t="s">
         <v>304</v>
       </c>
-      <c r="AA29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK29" t="s">
+      <c r="AM29" t="s">
         <v>305</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AN29" t="s">
         <v>306</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AO29" t="s">
         <v>307</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AP29" t="s">
         <v>308</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AX29" t="s">
         <v>309</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AZ29" t="s">
         <v>310</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="BA29" t="s">
         <v>311</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BB29" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC29" t="s">
         <v>312</v>
       </c>
-      <c r="BA29" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB29" t="s">
+      <c r="BD29" t="s">
         <v>313</v>
       </c>
-      <c r="BC29" t="s">
+      <c r="BE29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP29" t="s">
         <v>314</v>
       </c>
-      <c r="BD29" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO29" t="s">
+      <c r="BQ29" t="s">
         <v>315</v>
       </c>
-      <c r="BP29" t="s">
-        <v>316</v>
-      </c>
     </row>
-    <row r="30" spans="1:73" ht="15.5" customHeight="1">
+    <row r="30" spans="1:74" ht="15.5" customHeight="1">
       <c r="A30" t="s">
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E30" t="s">
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" t="s">
         <v>284</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>285</v>
       </c>
-      <c r="I30" t="s">
-        <v>286</v>
-      </c>
       <c r="J30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
+        <v>393</v>
+      </c>
+      <c r="L30" t="s">
         <v>135</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>287</v>
+      </c>
+      <c r="P30" t="s">
         <v>288</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" t="s">
         <v>289</v>
       </c>
-      <c r="P30" t="s">
-        <v>111</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="U30" t="s">
         <v>290</v>
       </c>
-      <c r="T30" t="s">
+      <c r="V30" t="s">
         <v>291</v>
       </c>
-      <c r="U30" t="s">
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
         <v>292</v>
       </c>
-      <c r="V30" t="s">
-        <v>255</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD30" t="s">
         <v>293</v>
       </c>
-      <c r="X30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>119</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:74">
       <c r="A31" t="s">
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
         <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" t="s">
         <v>284</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>285</v>
       </c>
-      <c r="I31" t="s">
-        <v>286</v>
-      </c>
       <c r="J31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L31" t="s">
         <v>135</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
+        <v>287</v>
+      </c>
+      <c r="P31" t="s">
         <v>288</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
+        <v>111</v>
+      </c>
+      <c r="S31" t="s">
         <v>289</v>
       </c>
-      <c r="P31" t="s">
-        <v>111</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="U31" t="s">
         <v>290</v>
       </c>
-      <c r="T31" t="s">
+      <c r="V31" t="s">
         <v>291</v>
       </c>
-      <c r="U31" t="s">
+      <c r="W31" t="s">
+        <v>254</v>
+      </c>
+      <c r="X31" t="s">
         <v>292</v>
       </c>
-      <c r="V31" t="s">
-        <v>255</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="Y31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD31" t="s">
         <v>293</v>
       </c>
-      <c r="X31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AE31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL31" t="s">
         <v>297</v>
       </c>
-      <c r="AC31" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:74">
       <c r="A32" t="s">
         <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" t="s">
         <v>284</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>285</v>
       </c>
-      <c r="I32" t="s">
-        <v>286</v>
-      </c>
       <c r="K32" t="s">
+        <v>395</v>
+      </c>
+      <c r="L32" t="s">
         <v>135</v>
       </c>
-      <c r="M32" t="s">
-        <v>288</v>
-      </c>
-      <c r="O32" t="s">
-        <v>171</v>
+      <c r="N32" t="s">
+        <v>287</v>
       </c>
       <c r="P32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" t="s">
         <v>111</v>
       </c>
-      <c r="T32" t="s">
-        <v>291</v>
-      </c>
       <c r="U32" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+      <c r="V32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>116</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>117</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>119</v>
       </c>
-      <c r="AK32" t="s">
-        <v>298</v>
+      <c r="AL32" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:72">
+    <row r="33" spans="1:73">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>285</v>
       </c>
-      <c r="I33" t="s">
-        <v>286</v>
-      </c>
       <c r="J33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K33" t="s">
+        <v>396</v>
+      </c>
+      <c r="L33" t="s">
         <v>135</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
+        <v>287</v>
+      </c>
+      <c r="P33" t="s">
         <v>288</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" t="s">
         <v>289</v>
       </c>
-      <c r="P33" t="s">
-        <v>111</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="U33" t="s">
         <v>290</v>
       </c>
-      <c r="T33" t="s">
+      <c r="V33" t="s">
         <v>291</v>
       </c>
-      <c r="U33" t="s">
+      <c r="W33" t="s">
+        <v>254</v>
+      </c>
+      <c r="X33" t="s">
         <v>292</v>
       </c>
-      <c r="V33" t="s">
-        <v>255</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD33" t="s">
         <v>293</v>
       </c>
-      <c r="X33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AE33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL33" t="s">
         <v>297</v>
       </c>
-      <c r="AC33" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="34" spans="1:72">
+    <row r="34" spans="1:73">
       <c r="A34" t="s">
         <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G34" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" t="s">
         <v>284</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>285</v>
       </c>
-      <c r="I34" t="s">
-        <v>286</v>
-      </c>
       <c r="K34" t="s">
+        <v>395</v>
+      </c>
+      <c r="L34" t="s">
         <v>135</v>
       </c>
-      <c r="M34" t="s">
-        <v>288</v>
-      </c>
-      <c r="O34" t="s">
-        <v>171</v>
+      <c r="N34" t="s">
+        <v>287</v>
       </c>
       <c r="P34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" t="s">
         <v>111</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
+        <v>290</v>
+      </c>
+      <c r="V34" t="s">
         <v>291</v>
       </c>
-      <c r="U34" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>115</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>117</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>119</v>
       </c>
-      <c r="AK34" t="s">
-        <v>298</v>
+      <c r="AL34" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:72">
+    <row r="35" spans="1:73">
       <c r="A35" t="s">
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E35" t="s">
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G35" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" t="s">
         <v>284</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>285</v>
       </c>
-      <c r="I35" t="s">
-        <v>286</v>
-      </c>
       <c r="J35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s">
+        <v>397</v>
+      </c>
+      <c r="L35" t="s">
         <v>135</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="P35" t="s">
         <v>288</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
+        <v>111</v>
+      </c>
+      <c r="S35" t="s">
         <v>289</v>
       </c>
-      <c r="P35" t="s">
-        <v>111</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>290</v>
       </c>
-      <c r="T35" t="s">
+      <c r="V35" t="s">
         <v>291</v>
       </c>
-      <c r="U35" t="s">
+      <c r="W35" t="s">
+        <v>254</v>
+      </c>
+      <c r="X35" t="s">
         <v>292</v>
       </c>
-      <c r="V35" t="s">
-        <v>255</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="Y35" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD35" t="s">
         <v>293</v>
       </c>
-      <c r="X35" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>119</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AL35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:72">
+    <row r="36" spans="1:73">
       <c r="A36" t="s">
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
         <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" t="s">
         <v>284</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>285</v>
       </c>
-      <c r="I36" t="s">
-        <v>286</v>
-      </c>
       <c r="J36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" t="s">
+        <v>398</v>
+      </c>
+      <c r="L36" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="P36" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>111</v>
+      </c>
+      <c r="S36" t="s">
+        <v>289</v>
+      </c>
+      <c r="U36" t="s">
+        <v>290</v>
+      </c>
+      <c r="V36" t="s">
+        <v>291</v>
+      </c>
+      <c r="W36" t="s">
+        <v>254</v>
+      </c>
+      <c r="X36" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL36" t="s">
         <v>329</v>
       </c>
-      <c r="K36" t="s">
-        <v>135</v>
-      </c>
-      <c r="M36" t="s">
-        <v>288</v>
-      </c>
-      <c r="O36" t="s">
-        <v>289</v>
-      </c>
-      <c r="P36" t="s">
-        <v>111</v>
-      </c>
-      <c r="R36" t="s">
-        <v>290</v>
-      </c>
-      <c r="T36" t="s">
-        <v>291</v>
-      </c>
-      <c r="U36" t="s">
-        <v>292</v>
-      </c>
-      <c r="V36" t="s">
-        <v>255</v>
-      </c>
-      <c r="W36" t="s">
-        <v>293</v>
-      </c>
-      <c r="X36" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK36" t="s">
+      <c r="AP36" t="s">
         <v>330</v>
       </c>
-      <c r="AO36" t="s">
+      <c r="AW36" t="s">
         <v>331</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AX36" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ36" t="s">
         <v>332</v>
       </c>
-      <c r="AW36" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY36" t="s">
+      <c r="BA36" t="s">
         <v>333</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="BB36" t="s">
         <v>334</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BC36" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD36" t="s">
         <v>335</v>
       </c>
-      <c r="BB36" t="s">
-        <v>313</v>
-      </c>
-      <c r="BC36" t="s">
+      <c r="BE36" t="s">
         <v>336</v>
       </c>
-      <c r="BD36" t="s">
+      <c r="BF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG36" t="s">
         <v>337</v>
       </c>
-      <c r="BE36" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF36" t="s">
+      <c r="BP36" t="s">
         <v>338</v>
       </c>
-      <c r="BO36" t="s">
+      <c r="BQ36" t="s">
         <v>339</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BT36" t="s">
         <v>340</v>
       </c>
-      <c r="BS36" t="s">
+      <c r="BU36" t="s">
         <v>341</v>
       </c>
-      <c r="BT36" t="s">
-        <v>342</v>
-      </c>
     </row>
-    <row r="37" spans="1:72">
+    <row r="37" spans="1:73">
       <c r="A37" t="s">
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" t="s">
         <v>344</v>
       </c>
-      <c r="H37" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" t="s">
-        <v>286</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>399</v>
+      </c>
+      <c r="L37" t="s">
+        <v>135</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="P37" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>111</v>
+      </c>
+      <c r="S37" t="s">
+        <v>289</v>
+      </c>
+      <c r="U37" t="s">
+        <v>290</v>
+      </c>
+      <c r="V37" t="s">
+        <v>291</v>
+      </c>
+      <c r="W37" t="s">
+        <v>254</v>
+      </c>
+      <c r="X37" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL37" t="s">
         <v>345</v>
       </c>
-      <c r="K37" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" t="s">
-        <v>288</v>
-      </c>
-      <c r="O37" t="s">
-        <v>289</v>
-      </c>
-      <c r="P37" t="s">
-        <v>111</v>
-      </c>
-      <c r="R37" t="s">
-        <v>290</v>
-      </c>
-      <c r="T37" t="s">
-        <v>291</v>
-      </c>
-      <c r="U37" t="s">
-        <v>292</v>
-      </c>
-      <c r="V37" t="s">
-        <v>255</v>
-      </c>
-      <c r="W37" t="s">
-        <v>293</v>
-      </c>
-      <c r="X37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK37" t="s">
+      <c r="AP37" t="s">
         <v>346</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AR37" t="s">
         <v>347</v>
       </c>
-      <c r="AQ37" t="s">
+      <c r="AX37" t="s">
         <v>348</v>
       </c>
-      <c r="AW37" t="s">
+      <c r="AZ37" t="s">
         <v>349</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="BA37" t="s">
         <v>350</v>
       </c>
-      <c r="AZ37" t="s">
+      <c r="BB37" t="s">
         <v>351</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BC37" t="s">
         <v>352</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BD37" t="s">
         <v>353</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BE37" t="s">
         <v>354</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BF37" t="s">
         <v>355</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BG37" t="s">
         <v>356</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BI37" t="s">
         <v>357</v>
       </c>
-      <c r="BH37" t="s">
+      <c r="BP37" t="s">
         <v>358</v>
       </c>
-      <c r="BO37" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="38" spans="1:72">
+    <row r="38" spans="1:73">
       <c r="A38" t="s">
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H38" t="s">
+        <v>284</v>
+      </c>
+      <c r="I38" t="s">
         <v>285</v>
       </c>
-      <c r="I38" t="s">
-        <v>286</v>
-      </c>
       <c r="J38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K38" t="s">
+        <v>400</v>
+      </c>
+      <c r="L38" t="s">
         <v>135</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
+        <v>287</v>
+      </c>
+      <c r="P38" t="s">
         <v>288</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
+        <v>111</v>
+      </c>
+      <c r="S38" t="s">
         <v>289</v>
       </c>
-      <c r="P38" t="s">
-        <v>111</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="U38" t="s">
         <v>290</v>
       </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>291</v>
       </c>
-      <c r="U38" t="s">
+      <c r="W38" t="s">
+        <v>254</v>
+      </c>
+      <c r="X38" t="s">
         <v>292</v>
       </c>
-      <c r="V38" t="s">
-        <v>255</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="Y38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD38" t="s">
         <v>293</v>
       </c>
-      <c r="X38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>119</v>
       </c>
-      <c r="AK38" t="s">
-        <v>298</v>
+      <c r="AL38" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A84B6365-90C4-4015-994C-8A4E32C6EB84}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A10A614-A122-49BB-9208-A2481C9E1AC5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView minimized="1" xWindow="10290" yWindow="3110" windowWidth="8530" windowHeight="4530" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,9 +501,6 @@
     <t>10.1594/PANGAEA.761042</t>
   </si>
   <si>
-    <t>Neveux_1976</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/PANGEAE/06AQ20011024/CHL</t>
   </si>
   <si>
@@ -1237,6 +1234,9 @@
   </si>
   <si>
     <t>09AR19990713_pig</t>
+  </si>
+  <si>
+    <t>JGOFS</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:BV38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1651,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -1875,7 +1875,7 @@
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L2" t="s">
         <v>110</v>
@@ -1949,7 +1949,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>124</v>
@@ -2026,7 +2026,7 @@
         <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L4" t="s">
         <v>130</v>
@@ -2079,7 +2079,7 @@
         <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L5" t="s">
         <v>135</v>
@@ -2213,10 +2213,10 @@
         <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L6" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="Q6" t="s">
         <v>111</v>
@@ -2269,7 +2269,7 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -2284,25 +2284,25 @@
         <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>107</v>
       </c>
       <c r="I7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" t="s">
         <v>158</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L7" t="s">
         <v>159</v>
       </c>
-      <c r="K7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>160</v>
-      </c>
-      <c r="P7" t="s">
-        <v>161</v>
       </c>
       <c r="Q7" t="s">
         <v>111</v>
@@ -2349,7 +2349,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -2364,22 +2364,22 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
         <v>107</v>
       </c>
       <c r="I8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
         <v>164</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" t="s">
         <v>165</v>
-      </c>
-      <c r="K8" t="s">
-        <v>371</v>
-      </c>
-      <c r="L8" t="s">
-        <v>166</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>148</v>
       </c>
       <c r="BG8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:74">
@@ -2447,7 +2447,7 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -2462,25 +2462,25 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
         <v>107</v>
       </c>
       <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" t="s">
         <v>169</v>
-      </c>
-      <c r="J9" t="s">
-        <v>373</v>
-      </c>
-      <c r="K9" t="s">
-        <v>372</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="P9" t="s">
-        <v>170</v>
       </c>
       <c r="Q9" t="s">
         <v>111</v>
@@ -2489,13 +2489,13 @@
         <v>113</v>
       </c>
       <c r="V9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W9" t="s">
         <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z9" t="s">
         <v>115</v>
@@ -2524,7 +2524,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -2539,22 +2539,22 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>53</v>
       </c>
       <c r="BG10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:74">
@@ -2619,7 +2619,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -2634,28 +2634,28 @@
         <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q11" t="s">
         <v>111</v>
@@ -2706,7 +2706,7 @@
         <v>53</v>
       </c>
       <c r="BG11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:74">
@@ -2714,7 +2714,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -2729,22 +2729,22 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
         <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>119</v>
       </c>
       <c r="AK12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL12" t="s">
         <v>36</v>
@@ -2795,7 +2795,7 @@
         <v>40</v>
       </c>
       <c r="AQ12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AZ12" t="s">
         <v>144</v>
@@ -2813,7 +2813,7 @@
         <v>148</v>
       </c>
       <c r="BG12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:74">
@@ -2821,7 +2821,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -2836,28 +2836,28 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
         <v>107</v>
       </c>
       <c r="I13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" t="s">
         <v>182</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>377</v>
+      </c>
+      <c r="L13" t="s">
         <v>183</v>
-      </c>
-      <c r="K13" t="s">
-        <v>378</v>
-      </c>
-      <c r="L13" t="s">
-        <v>184</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q13" t="s">
         <v>111</v>
@@ -2869,13 +2869,13 @@
         <v>113</v>
       </c>
       <c r="V13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W13" t="s">
         <v>113</v>
       </c>
       <c r="X13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s">
         <v>136</v>
@@ -2896,22 +2896,22 @@
         <v>119</v>
       </c>
       <c r="AI13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL13" t="s">
         <v>36</v>
       </c>
       <c r="AM13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AP13" t="s">
         <v>40</v>
       </c>
       <c r="AQ13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AW13" t="s">
         <v>143</v>
@@ -2938,28 +2938,28 @@
         <v>148</v>
       </c>
       <c r="BF13" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI13" t="s">
         <v>188</v>
       </c>
-      <c r="BG13" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>189</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>190</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BO13" t="s">
         <v>191</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>192</v>
       </c>
       <c r="BP13" t="s">
         <v>150</v>
       </c>
       <c r="BQ13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:74">
@@ -2967,7 +2967,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -2982,22 +2982,22 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s">
         <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>148</v>
       </c>
       <c r="BG14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:74">
@@ -3065,7 +3065,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -3080,28 +3080,28 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
         <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q15" t="s">
         <v>111</v>
@@ -3155,7 +3155,7 @@
         <v>148</v>
       </c>
       <c r="BG15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:74">
@@ -3163,7 +3163,7 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
@@ -3178,28 +3178,28 @@
         <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
         <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q16" t="s">
         <v>111</v>
@@ -3238,22 +3238,22 @@
         <v>119</v>
       </c>
       <c r="AI16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s">
         <v>36</v>
       </c>
       <c r="AM16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AP16" t="s">
         <v>40</v>
       </c>
       <c r="AQ16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AW16" t="s">
         <v>143</v>
@@ -3280,28 +3280,28 @@
         <v>148</v>
       </c>
       <c r="BF16" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI16" t="s">
         <v>188</v>
       </c>
-      <c r="BG16" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>189</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>190</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BO16" t="s">
         <v>191</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>192</v>
       </c>
       <c r="BP16" t="s">
         <v>150</v>
       </c>
       <c r="BQ16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:74">
@@ -3309,7 +3309,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -3324,28 +3324,28 @@
         <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q17" t="s">
         <v>111</v>
@@ -3384,22 +3384,22 @@
         <v>119</v>
       </c>
       <c r="AI17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s">
         <v>36</v>
       </c>
       <c r="AM17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AP17" t="s">
         <v>40</v>
       </c>
       <c r="AQ17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AW17" t="s">
         <v>143</v>
@@ -3429,34 +3429,34 @@
         <v>148</v>
       </c>
       <c r="BF17" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI17" t="s">
         <v>188</v>
       </c>
-      <c r="BG17" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>189</v>
-      </c>
       <c r="BJ17" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK17" t="s">
         <v>202</v>
       </c>
-      <c r="BK17" t="s">
-        <v>203</v>
-      </c>
       <c r="BO17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP17" t="s">
         <v>150</v>
       </c>
       <c r="BQ17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT17" t="s">
+        <v>203</v>
+      </c>
+      <c r="BU17" t="s">
         <v>204</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:74">
@@ -3464,7 +3464,7 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -3479,22 +3479,22 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
         <v>107</v>
       </c>
       <c r="I18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" t="s">
         <v>208</v>
       </c>
-      <c r="J18" t="s">
-        <v>209</v>
-      </c>
       <c r="K18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3541,37 +3541,37 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" t="s">
         <v>384</v>
       </c>
-      <c r="C19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" t="s">
-        <v>383</v>
-      </c>
-      <c r="F19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" t="s">
-        <v>385</v>
-      </c>
-      <c r="L19" t="s">
-        <v>217</v>
       </c>
       <c r="N19">
         <v>-9999</v>
@@ -3580,64 +3580,64 @@
         <v>-8888</v>
       </c>
       <c r="Q19" t="s">
+        <v>217</v>
+      </c>
+      <c r="S19" t="s">
         <v>218</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>219</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W19" t="s">
         <v>220</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>221</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>222</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>223</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>224</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>225</v>
       </c>
       <c r="AB19" t="s">
         <v>117</v>
       </c>
       <c r="AC19" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD19" t="s">
         <v>226</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>227</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AI19" t="s">
         <v>228</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
         <v>229</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>230</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>231</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AP19" t="s">
         <v>232</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>233</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AS19" t="s">
         <v>234</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AX19" t="s">
         <v>235</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>236</v>
       </c>
       <c r="AZ19" t="s">
         <v>144</v>
@@ -3658,25 +3658,25 @@
         <v>148</v>
       </c>
       <c r="BF19" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI19" t="s">
         <v>188</v>
       </c>
-      <c r="BG19" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>189</v>
-      </c>
       <c r="BN19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP19" t="s">
         <v>150</v>
       </c>
       <c r="BQ19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT19" t="s">
         <v>70</v>
@@ -3685,7 +3685,7 @@
         <v>71</v>
       </c>
       <c r="BV19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:74">
@@ -3693,37 +3693,37 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
         <v>210</v>
-      </c>
-      <c r="D20" t="s">
-        <v>211</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
       </c>
       <c r="F20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" t="s">
         <v>212</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>213</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>214</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>215</v>
       </c>
-      <c r="J20" t="s">
-        <v>216</v>
-      </c>
       <c r="K20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N20">
         <v>-9999</v>
@@ -3732,55 +3732,55 @@
         <v>-8888</v>
       </c>
       <c r="Q20" t="s">
+        <v>217</v>
+      </c>
+      <c r="S20" t="s">
         <v>218</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>219</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>220</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>221</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>222</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>223</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>224</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>225</v>
       </c>
       <c r="AB20" t="s">
         <v>117</v>
       </c>
       <c r="AC20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD20" t="s">
         <v>226</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>227</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AI20" t="s">
         <v>228</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AK20" t="s">
         <v>229</v>
       </c>
-      <c r="AK20" t="s">
-        <v>230</v>
-      </c>
       <c r="AM20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AV20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AX20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AZ20" t="s">
         <v>144</v>
@@ -3798,25 +3798,25 @@
         <v>147</v>
       </c>
       <c r="BI20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BN20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP20" t="s">
         <v>150</v>
       </c>
       <c r="BQ20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT20" t="s">
         <v>70</v>
       </c>
       <c r="BV20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:74">
@@ -3824,67 +3824,67 @@
         <v>101</v>
       </c>
       <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
         <v>243</v>
-      </c>
-      <c r="C21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" t="s">
-        <v>244</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" t="s">
         <v>245</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" t="s">
         <v>247</v>
       </c>
-      <c r="J21" t="s">
-        <v>248</v>
-      </c>
       <c r="K21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q21" t="s">
         <v>111</v>
       </c>
       <c r="S21" t="s">
+        <v>218</v>
+      </c>
+      <c r="U21" t="s">
         <v>219</v>
       </c>
-      <c r="U21" t="s">
-        <v>220</v>
-      </c>
       <c r="W21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z21" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA21" t="s">
         <v>361</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>362</v>
       </c>
       <c r="AB21" t="s">
         <v>117</v>
       </c>
       <c r="AD21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE21" t="s">
         <v>227</v>
       </c>
-      <c r="AE21" t="s">
-        <v>228</v>
-      </c>
       <c r="AF21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:74">
@@ -3892,34 +3892,34 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N22">
         <v>-999</v>
@@ -3931,19 +3931,19 @@
         <v>111</v>
       </c>
       <c r="S22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U22" t="s">
+        <v>253</v>
+      </c>
+      <c r="V22" t="s">
         <v>254</v>
       </c>
-      <c r="V22" t="s">
-        <v>255</v>
-      </c>
       <c r="W22" t="s">
+        <v>253</v>
+      </c>
+      <c r="X22" t="s">
         <v>254</v>
-      </c>
-      <c r="X22" t="s">
-        <v>255</v>
       </c>
       <c r="Z22" t="s">
         <v>115</v>
@@ -3958,46 +3958,46 @@
         <v>118</v>
       </c>
       <c r="AE22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AI22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK22" t="s">
         <v>257</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>258</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>259</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AP22" t="s">
         <v>260</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>261</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AT22" t="s">
         <v>262</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AV22" t="s">
         <v>263</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>264</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>265</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>266</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>267</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>268</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>269</v>
       </c>
       <c r="BB22" t="s">
         <v>146</v>
@@ -4012,31 +4012,31 @@
         <v>148</v>
       </c>
       <c r="BF22" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI22" t="s">
         <v>188</v>
       </c>
-      <c r="BG22" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>189</v>
-      </c>
       <c r="BJ22" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK22" t="s">
         <v>270</v>
       </c>
-      <c r="BK22" t="s">
+      <c r="BN22" t="s">
         <v>271</v>
       </c>
-      <c r="BN22" t="s">
-        <v>272</v>
-      </c>
       <c r="BO22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP22" t="s">
         <v>150</v>
       </c>
       <c r="BQ22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT22" t="s">
         <v>70</v>
@@ -4045,7 +4045,7 @@
         <v>71</v>
       </c>
       <c r="BV22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:74">
@@ -4053,34 +4053,34 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" t="s">
         <v>245</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="K23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N23">
         <v>-999</v>
@@ -4092,19 +4092,19 @@
         <v>111</v>
       </c>
       <c r="S23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V23" t="s">
         <v>254</v>
       </c>
-      <c r="V23" t="s">
-        <v>255</v>
-      </c>
       <c r="W23" t="s">
+        <v>253</v>
+      </c>
+      <c r="X23" t="s">
         <v>254</v>
-      </c>
-      <c r="X23" t="s">
-        <v>255</v>
       </c>
       <c r="Z23" t="s">
         <v>115</v>
@@ -4119,46 +4119,46 @@
         <v>118</v>
       </c>
       <c r="AE23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AI23" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK23" t="s">
         <v>257</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>258</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>259</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AP23" t="s">
         <v>260</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>261</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AT23" t="s">
         <v>262</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AV23" t="s">
         <v>263</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>264</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>265</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>266</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>267</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>268</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>269</v>
       </c>
       <c r="BB23" t="s">
         <v>146</v>
@@ -4173,31 +4173,31 @@
         <v>148</v>
       </c>
       <c r="BF23" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI23" t="s">
         <v>188</v>
       </c>
-      <c r="BG23" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>189</v>
-      </c>
       <c r="BJ23" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK23" t="s">
         <v>270</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BN23" t="s">
         <v>271</v>
       </c>
-      <c r="BN23" t="s">
-        <v>272</v>
-      </c>
       <c r="BO23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP23" t="s">
         <v>150</v>
       </c>
       <c r="BQ23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT23" t="s">
         <v>70</v>
@@ -4206,7 +4206,7 @@
         <v>71</v>
       </c>
       <c r="BV23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:74">
@@ -4214,37 +4214,37 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
         <v>210</v>
-      </c>
-      <c r="D24" t="s">
-        <v>211</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
         <v>212</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>213</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>214</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>215</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L24" t="s">
         <v>216</v>
-      </c>
-      <c r="K24" t="s">
-        <v>385</v>
-      </c>
-      <c r="L24" t="s">
-        <v>217</v>
       </c>
       <c r="N24">
         <v>-9999</v>
@@ -4253,64 +4253,64 @@
         <v>-8888</v>
       </c>
       <c r="Q24" t="s">
+        <v>217</v>
+      </c>
+      <c r="S24" t="s">
         <v>218</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>219</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
         <v>220</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>221</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>222</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>223</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>224</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>225</v>
       </c>
       <c r="AB24" t="s">
         <v>117</v>
       </c>
       <c r="AC24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD24" t="s">
         <v>226</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>227</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AI24" t="s">
         <v>228</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AK24" t="s">
         <v>229</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>230</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>231</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AP24" t="s">
         <v>232</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>233</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AS24" t="s">
         <v>234</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AX24" t="s">
         <v>235</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>236</v>
       </c>
       <c r="AZ24" t="s">
         <v>144</v>
@@ -4331,22 +4331,22 @@
         <v>148</v>
       </c>
       <c r="BF24" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI24" t="s">
         <v>188</v>
       </c>
-      <c r="BI24" t="s">
-        <v>189</v>
-      </c>
       <c r="BN24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP24" t="s">
         <v>150</v>
       </c>
       <c r="BQ24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT24" t="s">
         <v>70</v>
@@ -4355,7 +4355,7 @@
         <v>71</v>
       </c>
       <c r="BV24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:74">
@@ -4363,34 +4363,34 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" t="s">
         <v>249</v>
-      </c>
-      <c r="C25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" t="s">
-        <v>250</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" t="s">
         <v>251</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>252</v>
       </c>
-      <c r="I25" t="s">
-        <v>253</v>
-      </c>
       <c r="K25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>-999</v>
@@ -4399,25 +4399,25 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q25" t="s">
         <v>111</v>
       </c>
       <c r="U25" t="s">
+        <v>253</v>
+      </c>
+      <c r="V25" t="s">
         <v>254</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
         <v>255</v>
-      </c>
-      <c r="W25" t="s">
-        <v>254</v>
-      </c>
-      <c r="X25" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>256</v>
       </c>
       <c r="Z25" t="s">
         <v>115</v>
@@ -4432,46 +4432,46 @@
         <v>118</v>
       </c>
       <c r="AE25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AI25" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK25" t="s">
         <v>257</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>258</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>259</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AP25" t="s">
         <v>260</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>261</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AT25" t="s">
         <v>262</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AV25" t="s">
         <v>263</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>264</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>265</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>266</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>267</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>268</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>269</v>
       </c>
       <c r="BB25" t="s">
         <v>146</v>
@@ -4486,31 +4486,31 @@
         <v>148</v>
       </c>
       <c r="BF25" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI25" t="s">
         <v>188</v>
       </c>
-      <c r="BG25" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>189</v>
-      </c>
       <c r="BJ25" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK25" t="s">
         <v>270</v>
       </c>
-      <c r="BK25" t="s">
+      <c r="BN25" t="s">
         <v>271</v>
       </c>
-      <c r="BN25" t="s">
-        <v>272</v>
-      </c>
       <c r="BO25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP25" t="s">
         <v>150</v>
       </c>
       <c r="BQ25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT25" t="s">
         <v>70</v>
@@ -4524,37 +4524,37 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
         <v>210</v>
-      </c>
-      <c r="D26" t="s">
-        <v>211</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
       </c>
       <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
         <v>212</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>213</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>214</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>215</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L26" t="s">
         <v>216</v>
-      </c>
-      <c r="K26" t="s">
-        <v>385</v>
-      </c>
-      <c r="L26" t="s">
-        <v>217</v>
       </c>
       <c r="N26">
         <v>-9999</v>
@@ -4563,58 +4563,58 @@
         <v>-8888</v>
       </c>
       <c r="Q26" t="s">
+        <v>217</v>
+      </c>
+      <c r="S26" t="s">
         <v>218</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>219</v>
       </c>
-      <c r="U26" t="s">
+      <c r="W26" t="s">
         <v>220</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>221</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>222</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>223</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>224</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>225</v>
       </c>
       <c r="AB26" t="s">
         <v>117</v>
       </c>
       <c r="AC26" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD26" t="s">
         <v>226</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>227</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AI26" t="s">
         <v>228</v>
       </c>
-      <c r="AI26" t="s">
-        <v>229</v>
-      </c>
       <c r="AL26" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM26" t="s">
         <v>231</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AP26" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" t="s">
-        <v>233</v>
-      </c>
       <c r="AS26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX26" t="s">
         <v>235</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>236</v>
       </c>
       <c r="AZ26" t="s">
         <v>144</v>
@@ -4635,22 +4635,22 @@
         <v>148</v>
       </c>
       <c r="BF26" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI26" t="s">
         <v>188</v>
       </c>
-      <c r="BI26" t="s">
-        <v>189</v>
-      </c>
       <c r="BN26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BP26" t="s">
         <v>150</v>
       </c>
       <c r="BQ26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BT26" t="s">
         <v>70</v>
@@ -4659,7 +4659,7 @@
         <v>71</v>
       </c>
       <c r="BV26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:74">
@@ -4667,61 +4667,61 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
         <v>281</v>
-      </c>
-      <c r="C27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" t="s">
-        <v>282</v>
       </c>
       <c r="E27" t="s">
         <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H27" t="s">
         <v>283</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>284</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>285</v>
       </c>
-      <c r="J27" t="s">
-        <v>286</v>
-      </c>
       <c r="K27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L27" t="s">
         <v>135</v>
       </c>
       <c r="N27" t="s">
+        <v>286</v>
+      </c>
+      <c r="P27" t="s">
         <v>287</v>
-      </c>
-      <c r="P27" t="s">
-        <v>288</v>
       </c>
       <c r="Q27" t="s">
         <v>111</v>
       </c>
       <c r="S27" t="s">
+        <v>288</v>
+      </c>
+      <c r="U27" t="s">
         <v>289</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>290</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
         <v>291</v>
-      </c>
-      <c r="W27" t="s">
-        <v>254</v>
-      </c>
-      <c r="X27" t="s">
-        <v>292</v>
       </c>
       <c r="Y27" t="s">
         <v>23</v>
@@ -4736,10 +4736,10 @@
         <v>117</v>
       </c>
       <c r="AD27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL27" t="s">
         <v>36</v>
@@ -4750,61 +4750,61 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" t="s">
         <v>283</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>284</v>
       </c>
-      <c r="I28" t="s">
-        <v>285</v>
-      </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L28" t="s">
         <v>135</v>
       </c>
       <c r="N28" t="s">
+        <v>286</v>
+      </c>
+      <c r="P28" t="s">
         <v>287</v>
-      </c>
-      <c r="P28" t="s">
-        <v>288</v>
       </c>
       <c r="Q28" t="s">
         <v>111</v>
       </c>
       <c r="S28" t="s">
+        <v>288</v>
+      </c>
+      <c r="U28" t="s">
         <v>289</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>290</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
         <v>291</v>
-      </c>
-      <c r="W28" t="s">
-        <v>254</v>
-      </c>
-      <c r="X28" t="s">
-        <v>292</v>
       </c>
       <c r="Y28" t="s">
         <v>23</v>
@@ -4819,16 +4819,16 @@
         <v>117</v>
       </c>
       <c r="AC28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL28" t="s">
         <v>296</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:74">
@@ -4836,55 +4836,55 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" t="s">
         <v>283</v>
       </c>
-      <c r="H29" t="s">
-        <v>284</v>
-      </c>
       <c r="J29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L29" t="s">
         <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q29" t="s">
         <v>111</v>
       </c>
       <c r="U29" t="s">
+        <v>299</v>
+      </c>
+      <c r="V29" t="s">
         <v>300</v>
       </c>
-      <c r="V29" t="s">
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z29" t="s">
         <v>301</v>
       </c>
-      <c r="Y29" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>302</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>303</v>
       </c>
       <c r="AB29" t="s">
         <v>117</v>
@@ -4893,37 +4893,37 @@
         <v>119</v>
       </c>
       <c r="AL29" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM29" t="s">
         <v>304</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>305</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AO29" t="s">
         <v>306</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AP29" t="s">
         <v>307</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AX29" t="s">
         <v>308</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AZ29" t="s">
         <v>309</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>310</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>311</v>
       </c>
       <c r="BB29" t="s">
         <v>146</v>
       </c>
       <c r="BC29" t="s">
+        <v>311</v>
+      </c>
+      <c r="BD29" t="s">
         <v>312</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>313</v>
       </c>
       <c r="BE29" t="s">
         <v>55</v>
@@ -4938,10 +4938,10 @@
         <v>59</v>
       </c>
       <c r="BP29" t="s">
+        <v>313</v>
+      </c>
+      <c r="BQ29" t="s">
         <v>314</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:74" ht="15.5" customHeight="1">
@@ -4949,61 +4949,61 @@
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" t="s">
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" t="s">
         <v>283</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>284</v>
       </c>
-      <c r="I30" t="s">
-        <v>285</v>
-      </c>
       <c r="J30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L30" t="s">
         <v>135</v>
       </c>
       <c r="N30" t="s">
+        <v>286</v>
+      </c>
+      <c r="P30" t="s">
         <v>287</v>
-      </c>
-      <c r="P30" t="s">
-        <v>288</v>
       </c>
       <c r="Q30" t="s">
         <v>111</v>
       </c>
       <c r="S30" t="s">
+        <v>288</v>
+      </c>
+      <c r="U30" t="s">
         <v>289</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>290</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
+        <v>253</v>
+      </c>
+      <c r="X30" t="s">
         <v>291</v>
-      </c>
-      <c r="W30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X30" t="s">
-        <v>292</v>
       </c>
       <c r="Y30" t="s">
         <v>23</v>
@@ -5018,10 +5018,10 @@
         <v>117</v>
       </c>
       <c r="AC30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE30" t="s">
         <v>119</v>
@@ -5035,61 +5035,61 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" t="s">
         <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G31" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" t="s">
         <v>283</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>284</v>
       </c>
-      <c r="I31" t="s">
-        <v>285</v>
-      </c>
       <c r="J31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L31" t="s">
         <v>135</v>
       </c>
       <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="P31" t="s">
         <v>287</v>
-      </c>
-      <c r="P31" t="s">
-        <v>288</v>
       </c>
       <c r="Q31" t="s">
         <v>111</v>
       </c>
       <c r="S31" t="s">
+        <v>288</v>
+      </c>
+      <c r="U31" t="s">
         <v>289</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>290</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
         <v>291</v>
-      </c>
-      <c r="W31" t="s">
-        <v>254</v>
-      </c>
-      <c r="X31" t="s">
-        <v>292</v>
       </c>
       <c r="Y31" t="s">
         <v>23</v>
@@ -5104,16 +5104,16 @@
         <v>117</v>
       </c>
       <c r="AC31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE31" t="s">
         <v>119</v>
       </c>
       <c r="AL31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:74">
@@ -5121,49 +5121,49 @@
         <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" t="s">
         <v>283</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>284</v>
       </c>
-      <c r="I32" t="s">
-        <v>285</v>
-      </c>
       <c r="K32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L32" t="s">
         <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q32" t="s">
         <v>111</v>
       </c>
       <c r="U32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z32" t="s">
         <v>115</v>
@@ -5178,7 +5178,7 @@
         <v>119</v>
       </c>
       <c r="AL32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:73">
@@ -5186,61 +5186,61 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>284</v>
       </c>
-      <c r="I33" t="s">
-        <v>285</v>
-      </c>
       <c r="J33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L33" t="s">
         <v>135</v>
       </c>
       <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="P33" t="s">
         <v>287</v>
-      </c>
-      <c r="P33" t="s">
-        <v>288</v>
       </c>
       <c r="Q33" t="s">
         <v>111</v>
       </c>
       <c r="S33" t="s">
+        <v>288</v>
+      </c>
+      <c r="U33" t="s">
         <v>289</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>290</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
+        <v>253</v>
+      </c>
+      <c r="X33" t="s">
         <v>291</v>
-      </c>
-      <c r="W33" t="s">
-        <v>254</v>
-      </c>
-      <c r="X33" t="s">
-        <v>292</v>
       </c>
       <c r="Y33" t="s">
         <v>23</v>
@@ -5255,16 +5255,16 @@
         <v>117</v>
       </c>
       <c r="AC33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE33" t="s">
         <v>119</v>
       </c>
       <c r="AL33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:73">
@@ -5272,49 +5272,49 @@
         <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" t="s">
         <v>283</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>284</v>
       </c>
-      <c r="I34" t="s">
-        <v>285</v>
-      </c>
       <c r="K34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L34" t="s">
         <v>135</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q34" t="s">
         <v>111</v>
       </c>
       <c r="U34" t="s">
+        <v>289</v>
+      </c>
+      <c r="V34" t="s">
         <v>290</v>
-      </c>
-      <c r="V34" t="s">
-        <v>291</v>
       </c>
       <c r="Z34" t="s">
         <v>115</v>
@@ -5329,7 +5329,7 @@
         <v>119</v>
       </c>
       <c r="AL34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:73">
@@ -5337,61 +5337,61 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E35" t="s">
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" t="s">
         <v>283</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>284</v>
       </c>
-      <c r="I35" t="s">
-        <v>285</v>
-      </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L35" t="s">
         <v>135</v>
       </c>
       <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="P35" t="s">
         <v>287</v>
-      </c>
-      <c r="P35" t="s">
-        <v>288</v>
       </c>
       <c r="Q35" t="s">
         <v>111</v>
       </c>
       <c r="S35" t="s">
+        <v>288</v>
+      </c>
+      <c r="U35" t="s">
         <v>289</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>290</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
+        <v>253</v>
+      </c>
+      <c r="X35" t="s">
         <v>291</v>
-      </c>
-      <c r="W35" t="s">
-        <v>254</v>
-      </c>
-      <c r="X35" t="s">
-        <v>292</v>
       </c>
       <c r="Y35" t="s">
         <v>23</v>
@@ -5406,7 +5406,7 @@
         <v>117</v>
       </c>
       <c r="AD35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE35" t="s">
         <v>119</v>
@@ -5420,61 +5420,61 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E36" t="s">
         <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G36" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" t="s">
         <v>283</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>284</v>
       </c>
-      <c r="I36" t="s">
-        <v>285</v>
-      </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L36" t="s">
         <v>135</v>
       </c>
       <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P36" t="s">
         <v>287</v>
-      </c>
-      <c r="P36" t="s">
-        <v>288</v>
       </c>
       <c r="Q36" t="s">
         <v>111</v>
       </c>
       <c r="S36" t="s">
+        <v>288</v>
+      </c>
+      <c r="U36" t="s">
         <v>289</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>290</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
+        <v>253</v>
+      </c>
+      <c r="X36" t="s">
         <v>291</v>
-      </c>
-      <c r="W36" t="s">
-        <v>254</v>
-      </c>
-      <c r="X36" t="s">
-        <v>292</v>
       </c>
       <c r="Y36" t="s">
         <v>23</v>
@@ -5489,58 +5489,58 @@
         <v>117</v>
       </c>
       <c r="AD36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE36" t="s">
         <v>119</v>
       </c>
       <c r="AL36" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP36" t="s">
         <v>329</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AW36" t="s">
         <v>330</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AX36" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ36" t="s">
         <v>331</v>
       </c>
-      <c r="AX36" t="s">
-        <v>236</v>
-      </c>
-      <c r="AZ36" t="s">
+      <c r="BA36" t="s">
         <v>332</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BB36" t="s">
         <v>333</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BC36" t="s">
+        <v>311</v>
+      </c>
+      <c r="BD36" t="s">
         <v>334</v>
       </c>
-      <c r="BC36" t="s">
-        <v>312</v>
-      </c>
-      <c r="BD36" t="s">
+      <c r="BE36" t="s">
         <v>335</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>336</v>
       </c>
       <c r="BF36" t="s">
         <v>56</v>
       </c>
       <c r="BG36" t="s">
+        <v>336</v>
+      </c>
+      <c r="BP36" t="s">
         <v>337</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BQ36" t="s">
         <v>338</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BT36" t="s">
         <v>339</v>
       </c>
-      <c r="BT36" t="s">
+      <c r="BU36" t="s">
         <v>340</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:73">
@@ -5548,61 +5548,61 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G37" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" t="s">
+        <v>283</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
         <v>343</v>
       </c>
-      <c r="H37" t="s">
-        <v>284</v>
-      </c>
-      <c r="I37" t="s">
-        <v>285</v>
-      </c>
-      <c r="J37" t="s">
-        <v>344</v>
-      </c>
       <c r="K37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L37" t="s">
         <v>135</v>
       </c>
       <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="P37" t="s">
         <v>287</v>
-      </c>
-      <c r="P37" t="s">
-        <v>288</v>
       </c>
       <c r="Q37" t="s">
         <v>111</v>
       </c>
       <c r="S37" t="s">
+        <v>288</v>
+      </c>
+      <c r="U37" t="s">
         <v>289</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>290</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
+        <v>253</v>
+      </c>
+      <c r="X37" t="s">
         <v>291</v>
-      </c>
-      <c r="W37" t="s">
-        <v>254</v>
-      </c>
-      <c r="X37" t="s">
-        <v>292</v>
       </c>
       <c r="Y37" t="s">
         <v>23</v>
@@ -5617,55 +5617,55 @@
         <v>117</v>
       </c>
       <c r="AC37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE37" t="s">
         <v>119</v>
       </c>
       <c r="AL37" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP37" t="s">
         <v>345</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AR37" t="s">
         <v>346</v>
       </c>
-      <c r="AR37" t="s">
+      <c r="AX37" t="s">
         <v>347</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="AZ37" t="s">
         <v>348</v>
       </c>
-      <c r="AZ37" t="s">
+      <c r="BA37" t="s">
         <v>349</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BB37" t="s">
         <v>350</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BC37" t="s">
         <v>351</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BD37" t="s">
         <v>352</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BE37" t="s">
         <v>353</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BF37" t="s">
         <v>354</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BG37" t="s">
         <v>355</v>
       </c>
-      <c r="BG37" t="s">
+      <c r="BI37" t="s">
         <v>356</v>
       </c>
-      <c r="BI37" t="s">
+      <c r="BP37" t="s">
         <v>357</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:73">
@@ -5673,61 +5673,61 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H38" t="s">
+        <v>283</v>
+      </c>
+      <c r="I38" t="s">
         <v>284</v>
       </c>
-      <c r="I38" t="s">
-        <v>285</v>
-      </c>
       <c r="J38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L38" t="s">
         <v>135</v>
       </c>
       <c r="N38" t="s">
+        <v>286</v>
+      </c>
+      <c r="P38" t="s">
         <v>287</v>
-      </c>
-      <c r="P38" t="s">
-        <v>288</v>
       </c>
       <c r="Q38" t="s">
         <v>111</v>
       </c>
       <c r="S38" t="s">
+        <v>288</v>
+      </c>
+      <c r="U38" t="s">
         <v>289</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>290</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
+        <v>253</v>
+      </c>
+      <c r="X38" t="s">
         <v>291</v>
-      </c>
-      <c r="W38" t="s">
-        <v>254</v>
-      </c>
-      <c r="X38" t="s">
-        <v>292</v>
       </c>
       <c r="Y38" t="s">
         <v>23</v>
@@ -5742,13 +5742,13 @@
         <v>117</v>
       </c>
       <c r="AD38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE38" t="s">
         <v>119</v>
       </c>
       <c r="AL38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A10A614-A122-49BB-9208-A2481C9E1AC5}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE68B741-CE66-4A16-806E-07F7A4A056A7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10290" yWindow="3110" windowWidth="8530" windowHeight="4530" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="403">
   <si>
     <t>file_type</t>
   </si>
@@ -441,9 +441,6 @@
     <t>10.1594/PANGAEA.761047</t>
   </si>
   <si>
-    <t>Wright_etal_1991</t>
-  </si>
-  <si>
     <t>SampleID</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>10.1594/PANGAEA.126394</t>
   </si>
   <si>
-    <t>Riebesell_2001</t>
-  </si>
-  <si>
     <t>Event-transect</t>
   </si>
   <si>
@@ -864,12 +858,6 @@
     <t>Bozena Wojtasiewicz; Tom Trull</t>
   </si>
   <si>
-    <t>UK_fluor</t>
-  </si>
-  <si>
-    <t>Hooker_2016</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/SeaBASS/096U20160426/HPLC</t>
   </si>
   <si>
@@ -1237,13 +1225,31 @@
   </si>
   <si>
     <t>JGOFS</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>Unknown_fluorometry</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t>ANTXVIII_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1266,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1608,18 +1620,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
-  <dimension ref="A1:BV38"/>
+  <dimension ref="A1:BW38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="11" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1651,199 +1663,202 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:75">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1875,49 +1890,52 @@
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>111</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>112</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>113</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>114</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>113</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>115</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="2" customFormat="1">
+    <row r="3" spans="1:75" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1949,52 +1967,55 @@
         <v>123</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:75">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -2026,28 +2047,31 @@
         <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M4" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>111</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>112</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>118</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>119</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:75">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -2079,114 +2103,117 @@
         <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>367</v>
-      </c>
-      <c r="L5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M5" t="s">
+        <v>401</v>
+      </c>
+      <c r="R5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" t="s">
         <v>135</v>
       </c>
-      <c r="Q5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" t="s">
-        <v>112</v>
-      </c>
-      <c r="U5" t="s">
-        <v>113</v>
-      </c>
-      <c r="V5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W5" t="s">
-        <v>113</v>
-      </c>
-      <c r="X5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD5" t="s">
         <v>136</v>
       </c>
-      <c r="Z5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF5" t="s">
         <v>137</v>
       </c>
-      <c r="AD5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AM5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN5" t="s">
         <v>138</v>
       </c>
-      <c r="AL5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="AO5" t="s">
         <v>139</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>140</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR5" t="s">
         <v>141</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AS5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AX5" t="s">
         <v>142</v>
       </c>
-      <c r="AR5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="AY5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA5" t="s">
         <v>143</v>
       </c>
-      <c r="AX5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BB5" t="s">
         <v>144</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BC5" t="s">
         <v>145</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BD5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE5" t="s">
         <v>146</v>
       </c>
-      <c r="BC5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>147</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BI5" t="s">
         <v>148</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BQ5" t="s">
         <v>149</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BU5" t="s">
         <v>150</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BV5" t="s">
         <v>151</v>
       </c>
-      <c r="BU5" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:75">
       <c r="A6" t="s">
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -2210,66 +2237,69 @@
         <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>368</v>
-      </c>
-      <c r="L6" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>364</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M6" t="s">
+        <v>396</v>
+      </c>
+      <c r="R6" t="s">
         <v>111</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>112</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>113</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>114</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>113</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>114</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD6" t="s">
         <v>136</v>
       </c>
-      <c r="Z6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>118</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>119</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" t="s">
-        <v>142</v>
+      <c r="AI6" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:75">
       <c r="A7" t="s">
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -2284,72 +2314,75 @@
         <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
         <v>107</v>
       </c>
       <c r="I7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" t="s">
         <v>157</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q7" t="s">
         <v>158</v>
       </c>
-      <c r="K7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>111</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>112</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>113</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>114</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>113</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>114</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>115</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>116</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>117</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>118</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>119</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:75">
       <c r="A8" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -2364,90 +2397,93 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>107</v>
       </c>
       <c r="I8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M8" t="s">
         <v>163</v>
       </c>
-      <c r="J8" t="s">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" t="s">
+        <v>113</v>
+      </c>
+      <c r="W8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH8" t="s">
         <v>164</v>
       </c>
-      <c r="K8" t="s">
-        <v>370</v>
-      </c>
-      <c r="L8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" t="s">
-        <v>112</v>
-      </c>
-      <c r="U8" t="s">
-        <v>113</v>
-      </c>
-      <c r="V8" t="s">
-        <v>114</v>
-      </c>
-      <c r="W8" t="s">
-        <v>113</v>
-      </c>
-      <c r="X8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:75">
       <c r="A9" t="s">
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -2462,69 +2498,72 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
         <v>107</v>
       </c>
       <c r="I9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" t="s">
+        <v>367</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>167</v>
+      </c>
+      <c r="R9" t="s">
+        <v>111</v>
+      </c>
+      <c r="V9" t="s">
+        <v>113</v>
+      </c>
+      <c r="W9" t="s">
         <v>168</v>
       </c>
-      <c r="J9" t="s">
-        <v>372</v>
-      </c>
-      <c r="K9" t="s">
-        <v>371</v>
-      </c>
-      <c r="L9" t="s">
-        <v>159</v>
-      </c>
-      <c r="P9" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>111</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>113</v>
       </c>
-      <c r="V9" t="s">
-        <v>170</v>
-      </c>
-      <c r="W9" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA9" t="s">
         <v>115</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>116</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>117</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>118</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>119</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>36</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:75">
       <c r="A10" t="s">
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -2539,87 +2578,90 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
         <v>107</v>
       </c>
       <c r="I10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M10" t="s">
         <v>163</v>
       </c>
-      <c r="J10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" t="s">
-        <v>373</v>
-      </c>
-      <c r="L10" t="s">
-        <v>165</v>
-      </c>
-      <c r="O10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>111</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>112</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>113</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>114</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>113</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>114</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>115</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>116</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>117</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>118</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>119</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>40</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB10" t="s">
         <v>144</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BC10" t="s">
         <v>145</v>
       </c>
-      <c r="BB10" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>53</v>
       </c>
-      <c r="BG10" t="s">
-        <v>166</v>
+      <c r="BH10" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:75">
       <c r="A11" t="s">
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -2634,87 +2676,90 @@
         <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s">
         <v>107</v>
       </c>
       <c r="I11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" t="s">
+        <v>370</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M11" t="s">
         <v>163</v>
       </c>
-      <c r="J11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K11" t="s">
-        <v>374</v>
-      </c>
-      <c r="L11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11">
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
-        <v>169</v>
-      </c>
       <c r="Q11" t="s">
+        <v>167</v>
+      </c>
+      <c r="R11" t="s">
         <v>111</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>113</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>114</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>113</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>114</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>115</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>116</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>117</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>118</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>119</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>36</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>40</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB11" t="s">
         <v>144</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC11" t="s">
         <v>145</v>
       </c>
-      <c r="BB11" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>53</v>
       </c>
-      <c r="BG11" t="s">
-        <v>166</v>
+      <c r="BH11" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:75">
       <c r="A12" t="s">
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -2729,99 +2774,102 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
         <v>107</v>
       </c>
       <c r="I12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" t="s">
+        <v>372</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M12" t="s">
         <v>163</v>
       </c>
-      <c r="J12" t="s">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" t="s">
+        <v>113</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR12" t="s">
         <v>176</v>
       </c>
-      <c r="K12" t="s">
-        <v>376</v>
-      </c>
-      <c r="L12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>111</v>
-      </c>
-      <c r="S12" t="s">
-        <v>112</v>
-      </c>
-      <c r="U12" t="s">
-        <v>113</v>
-      </c>
-      <c r="V12" t="s">
-        <v>114</v>
-      </c>
-      <c r="W12" t="s">
-        <v>113</v>
-      </c>
-      <c r="X12" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB12" t="s">
         <v>144</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BC12" t="s">
         <v>145</v>
       </c>
-      <c r="BB12" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>53</v>
       </c>
-      <c r="BE12" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>166</v>
+      <c r="BF12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:75">
       <c r="A13" t="s">
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -2836,138 +2884,141 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
         <v>107</v>
       </c>
       <c r="I13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M13" t="s">
         <v>181</v>
       </c>
-      <c r="J13" t="s">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
         <v>182</v>
       </c>
-      <c r="K13" t="s">
-        <v>377</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="R13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" t="s">
+        <v>168</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>183</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="AL13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN13" t="s">
         <v>184</v>
       </c>
-      <c r="Q13" t="s">
-        <v>111</v>
-      </c>
-      <c r="S13" t="s">
-        <v>112</v>
-      </c>
-      <c r="U13" t="s">
-        <v>113</v>
-      </c>
-      <c r="V13" t="s">
-        <v>170</v>
-      </c>
-      <c r="W13" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AQ13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG13" t="s">
         <v>185</v>
       </c>
-      <c r="AK13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="BH13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>186</v>
       </c>
-      <c r="AP13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF13" t="s">
+      <c r="BK13" t="s">
         <v>187</v>
       </c>
-      <c r="BG13" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI13" t="s">
+      <c r="BL13" t="s">
         <v>188</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BP13" t="s">
         <v>189</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BQ13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR13" t="s">
         <v>190</v>
       </c>
-      <c r="BO13" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:75">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -2982,90 +3033,93 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
         <v>107</v>
       </c>
       <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" t="s">
+        <v>374</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M14" t="s">
         <v>163</v>
       </c>
-      <c r="J14" t="s">
-        <v>194</v>
-      </c>
-      <c r="K14" t="s">
-        <v>378</v>
-      </c>
-      <c r="L14" t="s">
-        <v>165</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>111</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>112</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>113</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>114</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>113</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>114</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>115</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>116</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>117</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>118</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>119</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>36</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>40</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB14" t="s">
         <v>144</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BC14" t="s">
         <v>145</v>
       </c>
-      <c r="BB14" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
         <v>53</v>
       </c>
-      <c r="BE14" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>166</v>
+      <c r="BF14" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:75">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -3080,90 +3134,93 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
         <v>107</v>
       </c>
       <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" t="s">
+        <v>371</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M15" t="s">
         <v>163</v>
       </c>
-      <c r="J15" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" t="s">
-        <v>375</v>
-      </c>
-      <c r="L15" t="s">
-        <v>165</v>
-      </c>
-      <c r="O15">
+      <c r="P15">
         <v>0</v>
       </c>
-      <c r="P15" t="s">
-        <v>169</v>
-      </c>
       <c r="Q15" t="s">
+        <v>167</v>
+      </c>
+      <c r="R15" t="s">
         <v>111</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>113</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>114</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>113</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>114</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>115</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>116</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>117</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>118</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>119</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>36</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>40</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB15" t="s">
         <v>144</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BC15" t="s">
         <v>145</v>
       </c>
-      <c r="BB15" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC15" t="s">
+      <c r="BD15" t="s">
         <v>53</v>
       </c>
-      <c r="BE15" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>166</v>
+      <c r="BF15" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:75">
       <c r="A16" t="s">
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
@@ -3178,138 +3235,141 @@
         <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H16" t="s">
         <v>107</v>
       </c>
       <c r="I16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" t="s">
+        <v>375</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M16" t="s">
         <v>181</v>
       </c>
-      <c r="J16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" t="s">
-        <v>379</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>182</v>
+      </c>
+      <c r="R16" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" t="s">
+        <v>113</v>
+      </c>
+      <c r="W16" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>183</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="AL16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN16" t="s">
         <v>184</v>
       </c>
-      <c r="Q16" t="s">
-        <v>111</v>
-      </c>
-      <c r="S16" t="s">
-        <v>112</v>
-      </c>
-      <c r="U16" t="s">
-        <v>113</v>
-      </c>
-      <c r="V16" t="s">
-        <v>114</v>
-      </c>
-      <c r="W16" t="s">
-        <v>113</v>
-      </c>
-      <c r="X16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AQ16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG16" t="s">
         <v>185</v>
       </c>
-      <c r="AK16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="BH16" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>186</v>
       </c>
-      <c r="AP16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF16" t="s">
+      <c r="BK16" t="s">
         <v>187</v>
       </c>
-      <c r="BG16" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI16" t="s">
+      <c r="BL16" t="s">
         <v>188</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BP16" t="s">
         <v>189</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BQ16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR16" t="s">
         <v>190</v>
       </c>
-      <c r="BO16" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="17" spans="1:74">
+    <row r="17" spans="1:75">
       <c r="A17" t="s">
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -3324,147 +3384,150 @@
         <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
       </c>
       <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M17" t="s">
         <v>181</v>
       </c>
-      <c r="J17" t="s">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" t="s">
+        <v>113</v>
+      </c>
+      <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL17" t="s">
         <v>200</v>
       </c>
-      <c r="K17" t="s">
-        <v>380</v>
-      </c>
-      <c r="L17" t="s">
-        <v>183</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" t="s">
-        <v>112</v>
-      </c>
-      <c r="U17" t="s">
-        <v>113</v>
-      </c>
-      <c r="V17" t="s">
-        <v>114</v>
-      </c>
-      <c r="W17" t="s">
-        <v>113</v>
-      </c>
-      <c r="X17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>187</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ17" t="s">
+      <c r="BP17" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU17" t="s">
         <v>201</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BV17" t="s">
         <v>202</v>
       </c>
-      <c r="BO17" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>203</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>204</v>
-      </c>
     </row>
-    <row r="18" spans="1:74">
+    <row r="18" spans="1:75">
       <c r="A18" t="s">
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -3479,2279 +3542,2343 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
         <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
-      </c>
-      <c r="L18" t="s">
-        <v>165</v>
-      </c>
-      <c r="O18">
+        <v>377</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M18" t="s">
+        <v>396</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>111</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>112</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>113</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>114</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>113</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>114</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>116</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>117</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>118</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>119</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:74">
+    <row r="19" spans="1:75">
       <c r="A19" t="s">
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" t="s">
         <v>209</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>210</v>
       </c>
-      <c r="E19" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>211</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>212</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>213</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
+        <v>380</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M19" t="s">
         <v>214</v>
       </c>
-      <c r="J19" t="s">
+      <c r="O19">
+        <v>-9999</v>
+      </c>
+      <c r="P19">
+        <v>-8888</v>
+      </c>
+      <c r="R19" t="s">
         <v>215</v>
       </c>
-      <c r="K19" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="T19" t="s">
         <v>216</v>
       </c>
-      <c r="N19">
-        <v>-9999</v>
-      </c>
-      <c r="O19">
-        <v>-8888</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="V19" t="s">
         <v>217</v>
       </c>
-      <c r="S19" t="s">
+      <c r="X19" t="s">
         <v>218</v>
       </c>
-      <c r="U19" t="s">
+      <c r="Y19" t="s">
         <v>219</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Z19" t="s">
         <v>220</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AA19" t="s">
         <v>221</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AB19" t="s">
         <v>222</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AC19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD19" t="s">
         <v>223</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AE19" t="s">
         <v>224</v>
       </c>
-      <c r="AB19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AF19" t="s">
         <v>225</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AJ19" t="s">
         <v>226</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AL19" t="s">
         <v>227</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AM19" t="s">
         <v>228</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AN19" t="s">
         <v>229</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AQ19" t="s">
         <v>230</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AR19" t="s">
         <v>231</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AT19" t="s">
         <v>232</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AY19" t="s">
         <v>233</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="BA19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO19" t="s">
         <v>234</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="BP19" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW19" t="s">
         <v>235</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>187</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>188</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>236</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>237</v>
-      </c>
     </row>
-    <row r="20" spans="1:74">
+    <row r="20" spans="1:75">
       <c r="A20" t="s">
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
       </c>
       <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" t="s">
         <v>211</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>212</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>213</v>
       </c>
-      <c r="I20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M20" t="s">
+        <v>237</v>
+      </c>
+      <c r="O20">
+        <v>-9999</v>
+      </c>
+      <c r="P20">
+        <v>-8888</v>
+      </c>
+      <c r="R20" t="s">
         <v>215</v>
       </c>
-      <c r="K20" t="s">
-        <v>384</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="T20" t="s">
+        <v>216</v>
+      </c>
+      <c r="V20" t="s">
+        <v>217</v>
+      </c>
+      <c r="X20" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW20" t="s">
         <v>239</v>
       </c>
-      <c r="N20">
-        <v>-9999</v>
-      </c>
-      <c r="O20">
-        <v>-8888</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>217</v>
-      </c>
-      <c r="S20" t="s">
-        <v>218</v>
-      </c>
-      <c r="U20" t="s">
-        <v>219</v>
-      </c>
-      <c r="W20" t="s">
-        <v>220</v>
-      </c>
-      <c r="X20" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>188</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>236</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>241</v>
-      </c>
     </row>
-    <row r="21" spans="1:74">
+    <row r="21" spans="1:75">
       <c r="A21" t="s">
         <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>245</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" t="s">
-        <v>247</v>
-      </c>
       <c r="K21" t="s">
-        <v>386</v>
-      </c>
-      <c r="L21" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q21" t="s">
+        <v>382</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R21" t="s">
         <v>111</v>
       </c>
-      <c r="S21" t="s">
-        <v>218</v>
-      </c>
-      <c r="U21" t="s">
-        <v>219</v>
-      </c>
-      <c r="W21" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>360</v>
+      <c r="T21" t="s">
+        <v>216</v>
+      </c>
+      <c r="V21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>358</v>
       </c>
       <c r="AA21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AB21" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="AD21" t="s">
-        <v>226</v>
-      </c>
       <c r="AE21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s">
-        <v>296</v>
+        <v>225</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:74">
+    <row r="22" spans="1:75">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H22" t="s">
+        <v>249</v>
+      </c>
+      <c r="I22" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" t="s">
+        <v>381</v>
+      </c>
+      <c r="L22" t="s">
+        <v>399</v>
+      </c>
+      <c r="M22" t="s">
+        <v>237</v>
+      </c>
+      <c r="O22">
+        <v>-999</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>111</v>
+      </c>
+      <c r="T22" t="s">
+        <v>253</v>
+      </c>
+      <c r="V22" t="s">
         <v>251</v>
       </c>
-      <c r="I22" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" t="s">
-        <v>385</v>
-      </c>
-      <c r="L22" t="s">
-        <v>277</v>
-      </c>
-      <c r="N22">
-        <v>-999</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>111</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="W22" t="s">
+        <v>252</v>
+      </c>
+      <c r="X22" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL22" t="s">
         <v>255</v>
       </c>
-      <c r="U22" t="s">
-        <v>253</v>
-      </c>
-      <c r="V22" t="s">
-        <v>254</v>
-      </c>
-      <c r="W22" t="s">
-        <v>253</v>
-      </c>
-      <c r="X22" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AM22" t="s">
         <v>256</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AN22" t="s">
         <v>257</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AQ22" t="s">
         <v>258</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AR22" t="s">
         <v>259</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AU22" t="s">
         <v>260</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AW22" t="s">
         <v>261</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AX22" t="s">
         <v>262</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AY22" t="s">
         <v>263</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AZ22" t="s">
         <v>264</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="BA22" t="s">
         <v>265</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="BB22" t="s">
         <v>266</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BC22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK22" t="s">
         <v>267</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BL22" t="s">
         <v>268</v>
       </c>
-      <c r="BB22" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>187</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ22" t="s">
+      <c r="BO22" t="s">
         <v>269</v>
       </c>
-      <c r="BK22" t="s">
-        <v>270</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>271</v>
-      </c>
-      <c r="BO22" t="s">
-        <v>191</v>
-      </c>
       <c r="BP22" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="BQ22" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU22" t="s">
         <v>70</v>
       </c>
-      <c r="BU22" t="s">
+      <c r="BV22" t="s">
         <v>71</v>
       </c>
-      <c r="BV22" t="s">
-        <v>241</v>
+      <c r="BW22" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:74">
+    <row r="23" spans="1:75">
       <c r="A23" t="s">
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H23" t="s">
-        <v>245</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="K23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L23" t="s">
-        <v>277</v>
-      </c>
-      <c r="N23">
+        <v>399</v>
+      </c>
+      <c r="M23" t="s">
+        <v>237</v>
+      </c>
+      <c r="O23">
         <v>-999</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>111</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
+        <v>253</v>
+      </c>
+      <c r="V23" t="s">
+        <v>251</v>
+      </c>
+      <c r="W23" t="s">
+        <v>252</v>
+      </c>
+      <c r="X23" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL23" t="s">
         <v>255</v>
       </c>
-      <c r="U23" t="s">
-        <v>253</v>
-      </c>
-      <c r="V23" t="s">
-        <v>254</v>
-      </c>
-      <c r="W23" t="s">
-        <v>253</v>
-      </c>
-      <c r="X23" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AM23" t="s">
         <v>256</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AN23" t="s">
         <v>257</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AQ23" t="s">
         <v>258</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AR23" t="s">
         <v>259</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AU23" t="s">
         <v>260</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AW23" t="s">
         <v>261</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AX23" t="s">
         <v>262</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AY23" t="s">
         <v>263</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AZ23" t="s">
         <v>264</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BA23" t="s">
         <v>265</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="BB23" t="s">
         <v>266</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BC23" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK23" t="s">
         <v>267</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BL23" t="s">
         <v>268</v>
       </c>
-      <c r="BB23" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>187</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ23" t="s">
+      <c r="BO23" t="s">
         <v>269</v>
       </c>
-      <c r="BK23" t="s">
-        <v>270</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>271</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>191</v>
-      </c>
       <c r="BP23" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="BQ23" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU23" t="s">
         <v>70</v>
       </c>
-      <c r="BU23" t="s">
+      <c r="BV23" t="s">
         <v>71</v>
       </c>
-      <c r="BV23" t="s">
-        <v>241</v>
+      <c r="BW23" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:75">
       <c r="A24" t="s">
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" t="s">
         <v>211</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>212</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>213</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L24" t="s">
+        <v>399</v>
+      </c>
+      <c r="M24" t="s">
         <v>214</v>
       </c>
-      <c r="J24" t="s">
+      <c r="O24">
+        <v>-9999</v>
+      </c>
+      <c r="P24">
+        <v>-8888</v>
+      </c>
+      <c r="R24" t="s">
         <v>215</v>
       </c>
-      <c r="K24" t="s">
-        <v>384</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="T24" t="s">
         <v>216</v>
       </c>
-      <c r="N24">
-        <v>-9999</v>
-      </c>
-      <c r="O24">
-        <v>-8888</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="V24" t="s">
         <v>217</v>
       </c>
-      <c r="S24" t="s">
+      <c r="X24" t="s">
         <v>218</v>
       </c>
-      <c r="U24" t="s">
+      <c r="Y24" t="s">
         <v>219</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Z24" t="s">
         <v>220</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AA24" t="s">
         <v>221</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AB24" t="s">
         <v>222</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AC24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD24" t="s">
         <v>223</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AE24" t="s">
         <v>224</v>
       </c>
-      <c r="AB24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AF24" t="s">
         <v>225</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AJ24" t="s">
         <v>226</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AL24" t="s">
         <v>227</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AM24" t="s">
         <v>228</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AN24" t="s">
         <v>229</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AQ24" t="s">
         <v>230</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AR24" t="s">
         <v>231</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AT24" t="s">
         <v>232</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AY24" t="s">
         <v>233</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="BA24" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>185</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO24" t="s">
         <v>234</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="BP24" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW24" t="s">
         <v>235</v>
       </c>
-      <c r="AZ24" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>187</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>188</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>236</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>237</v>
-      </c>
     </row>
-    <row r="25" spans="1:74">
+    <row r="25" spans="1:75">
       <c r="A25" t="s">
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I25" t="s">
         <v>250</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" t="s">
+        <v>399</v>
+      </c>
+      <c r="M25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25">
+        <v>-999</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>167</v>
+      </c>
+      <c r="R25" t="s">
+        <v>111</v>
+      </c>
+      <c r="V25" t="s">
         <v>251</v>
       </c>
-      <c r="I25" t="s">
+      <c r="W25" t="s">
         <v>252</v>
       </c>
-      <c r="K25" t="s">
-        <v>388</v>
-      </c>
-      <c r="L25" t="s">
-        <v>216</v>
-      </c>
-      <c r="N25">
-        <v>-999</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>111</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z25" t="s">
         <v>253</v>
       </c>
-      <c r="V25" t="s">
+      <c r="AA25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>254</v>
       </c>
-      <c r="W25" t="s">
-        <v>253</v>
-      </c>
-      <c r="X25" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="AL25" t="s">
         <v>255</v>
       </c>
-      <c r="Z25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AM25" t="s">
         <v>256</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AN25" t="s">
         <v>257</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AQ25" t="s">
         <v>258</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AR25" t="s">
         <v>259</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AU25" t="s">
         <v>260</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AW25" t="s">
         <v>261</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AX25" t="s">
         <v>262</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AY25" t="s">
         <v>263</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AZ25" t="s">
         <v>264</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="BA25" t="s">
         <v>265</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="BB25" t="s">
         <v>266</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BC25" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK25" t="s">
         <v>267</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BL25" t="s">
         <v>268</v>
       </c>
-      <c r="BB25" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>187</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>188</v>
-      </c>
-      <c r="BJ25" t="s">
+      <c r="BO25" t="s">
         <v>269</v>
       </c>
-      <c r="BK25" t="s">
-        <v>270</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>271</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>191</v>
-      </c>
       <c r="BP25" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="BQ25" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT25" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU25" t="s">
         <v>70</v>
       </c>
-      <c r="BU25" t="s">
+      <c r="BV25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:75">
       <c r="A26" t="s">
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
       </c>
       <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>212</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>213</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" t="s">
+        <v>399</v>
+      </c>
+      <c r="M26" t="s">
         <v>214</v>
       </c>
-      <c r="J26" t="s">
+      <c r="O26">
+        <v>-9999</v>
+      </c>
+      <c r="P26">
+        <v>-8888</v>
+      </c>
+      <c r="R26" t="s">
         <v>215</v>
       </c>
-      <c r="K26" t="s">
-        <v>384</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="T26" t="s">
         <v>216</v>
       </c>
-      <c r="N26">
-        <v>-9999</v>
-      </c>
-      <c r="O26">
-        <v>-8888</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="V26" t="s">
         <v>217</v>
       </c>
-      <c r="S26" t="s">
+      <c r="X26" t="s">
         <v>218</v>
       </c>
-      <c r="U26" t="s">
+      <c r="Y26" t="s">
         <v>219</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Z26" t="s">
         <v>220</v>
       </c>
-      <c r="X26" t="s">
+      <c r="AA26" t="s">
         <v>221</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AB26" t="s">
         <v>222</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AC26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD26" t="s">
         <v>223</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AE26" t="s">
         <v>224</v>
       </c>
-      <c r="AB26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AF26" t="s">
         <v>225</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AJ26" t="s">
         <v>226</v>
       </c>
-      <c r="AE26" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AM26" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>230</v>
       </c>
-      <c r="AM26" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP26" t="s">
+      <c r="AT26" t="s">
         <v>232</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AY26" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>185</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO26" t="s">
         <v>234</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BP26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW26" t="s">
         <v>235</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>187</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>188</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>236</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>237</v>
-      </c>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:75">
       <c r="A27" t="s">
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
         <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" t="s">
+        <v>279</v>
+      </c>
+      <c r="I27" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" t="s">
+        <v>281</v>
+      </c>
+      <c r="K27" t="s">
+        <v>385</v>
+      </c>
+      <c r="L27" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27" t="s">
+        <v>401</v>
+      </c>
+      <c r="O27" t="s">
         <v>282</v>
       </c>
-      <c r="H27" t="s">
+      <c r="Q27" t="s">
         <v>283</v>
       </c>
-      <c r="I27" t="s">
+      <c r="R27" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" t="s">
         <v>284</v>
       </c>
-      <c r="J27" t="s">
+      <c r="V27" t="s">
         <v>285</v>
       </c>
-      <c r="K27" t="s">
-        <v>389</v>
-      </c>
-      <c r="L27" t="s">
-        <v>135</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="W27" t="s">
         <v>286</v>
       </c>
-      <c r="P27" t="s">
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
         <v>287</v>
       </c>
-      <c r="Q27" t="s">
-        <v>111</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="Z27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE27" t="s">
         <v>288</v>
       </c>
-      <c r="U27" t="s">
-        <v>289</v>
-      </c>
-      <c r="V27" t="s">
-        <v>290</v>
-      </c>
-      <c r="W27" t="s">
-        <v>253</v>
-      </c>
-      <c r="X27" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="AF27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:75">
       <c r="A28" t="s">
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" t="s">
+        <v>290</v>
+      </c>
+      <c r="K28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M28" t="s">
+        <v>401</v>
+      </c>
+      <c r="O28" t="s">
         <v>282</v>
       </c>
-      <c r="H28" t="s">
+      <c r="Q28" t="s">
         <v>283</v>
       </c>
-      <c r="I28" t="s">
+      <c r="R28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" t="s">
         <v>284</v>
       </c>
-      <c r="J28" t="s">
-        <v>294</v>
-      </c>
-      <c r="K28" t="s">
-        <v>390</v>
-      </c>
-      <c r="L28" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="V28" t="s">
+        <v>285</v>
+      </c>
+      <c r="W28" t="s">
         <v>286</v>
       </c>
-      <c r="P28" t="s">
+      <c r="X28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y28" t="s">
         <v>287</v>
       </c>
-      <c r="Q28" t="s">
-        <v>111</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="Z28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE28" t="s">
         <v>288</v>
       </c>
-      <c r="U28" t="s">
-        <v>289</v>
-      </c>
-      <c r="V28" t="s">
-        <v>290</v>
-      </c>
-      <c r="W28" t="s">
-        <v>253</v>
-      </c>
-      <c r="X28" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD28" t="s">
+      <c r="AF28" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM28" t="s">
         <v>292</v>
       </c>
-      <c r="AE28" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>296</v>
-      </c>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:75">
       <c r="A29" t="s">
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H29" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" t="s">
+        <v>399</v>
+      </c>
+      <c r="M29" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>167</v>
+      </c>
+      <c r="R29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V29" t="s">
+        <v>295</v>
+      </c>
+      <c r="W29" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB29" t="s">
         <v>298</v>
       </c>
-      <c r="K29" t="s">
-        <v>391</v>
-      </c>
-      <c r="L29" t="s">
-        <v>135</v>
-      </c>
-      <c r="P29" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>111</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="AC29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM29" t="s">
         <v>299</v>
       </c>
-      <c r="V29" t="s">
+      <c r="AN29" t="s">
         <v>300</v>
       </c>
-      <c r="Y29" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="AO29" t="s">
         <v>301</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AP29" t="s">
         <v>302</v>
       </c>
-      <c r="AB29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL29" t="s">
+      <c r="AQ29" t="s">
         <v>303</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AY29" t="s">
         <v>304</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="BA29" t="s">
         <v>305</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="BB29" t="s">
         <v>306</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="BC29" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD29" t="s">
         <v>307</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="BE29" t="s">
         <v>308</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BF29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ29" t="s">
         <v>309</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BR29" t="s">
         <v>310</v>
       </c>
-      <c r="BB29" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>311</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>312</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP29" t="s">
-        <v>313</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>314</v>
-      </c>
     </row>
-    <row r="30" spans="1:74" ht="15.5" customHeight="1">
+    <row r="30" spans="1:75" ht="15.5" customHeight="1">
       <c r="A30" t="s">
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>312</v>
+      </c>
+      <c r="K30" t="s">
+        <v>388</v>
+      </c>
+      <c r="L30" t="s">
+        <v>399</v>
+      </c>
+      <c r="M30" t="s">
+        <v>401</v>
+      </c>
+      <c r="O30" t="s">
         <v>282</v>
       </c>
-      <c r="H30" t="s">
+      <c r="Q30" t="s">
         <v>283</v>
       </c>
-      <c r="I30" t="s">
+      <c r="R30" t="s">
+        <v>111</v>
+      </c>
+      <c r="T30" t="s">
         <v>284</v>
       </c>
-      <c r="J30" t="s">
-        <v>316</v>
-      </c>
-      <c r="K30" t="s">
-        <v>392</v>
-      </c>
-      <c r="L30" t="s">
-        <v>135</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="V30" t="s">
+        <v>285</v>
+      </c>
+      <c r="W30" t="s">
         <v>286</v>
       </c>
-      <c r="P30" t="s">
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
         <v>287</v>
       </c>
-      <c r="Q30" t="s">
-        <v>111</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="Z30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE30" t="s">
         <v>288</v>
       </c>
-      <c r="U30" t="s">
-        <v>289</v>
-      </c>
-      <c r="V30" t="s">
-        <v>290</v>
-      </c>
-      <c r="W30" t="s">
-        <v>253</v>
-      </c>
-      <c r="X30" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>119</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:75">
       <c r="A31" t="s">
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
         <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>314</v>
+      </c>
+      <c r="K31" t="s">
+        <v>389</v>
+      </c>
+      <c r="L31" t="s">
+        <v>399</v>
+      </c>
+      <c r="M31" t="s">
+        <v>401</v>
+      </c>
+      <c r="O31" t="s">
         <v>282</v>
       </c>
-      <c r="H31" t="s">
+      <c r="Q31" t="s">
         <v>283</v>
       </c>
-      <c r="I31" t="s">
+      <c r="R31" t="s">
+        <v>111</v>
+      </c>
+      <c r="T31" t="s">
         <v>284</v>
       </c>
-      <c r="J31" t="s">
-        <v>318</v>
-      </c>
-      <c r="K31" t="s">
-        <v>393</v>
-      </c>
-      <c r="L31" t="s">
-        <v>135</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="V31" t="s">
+        <v>285</v>
+      </c>
+      <c r="W31" t="s">
         <v>286</v>
       </c>
-      <c r="P31" t="s">
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
         <v>287</v>
       </c>
-      <c r="Q31" t="s">
-        <v>111</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="Z31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE31" t="s">
         <v>288</v>
       </c>
-      <c r="U31" t="s">
-        <v>289</v>
-      </c>
-      <c r="V31" t="s">
-        <v>290</v>
-      </c>
-      <c r="W31" t="s">
-        <v>253</v>
-      </c>
-      <c r="X31" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD31" t="s">
+      <c r="AF31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM31" t="s">
         <v>292</v>
       </c>
-      <c r="AE31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>296</v>
-      </c>
     </row>
-    <row r="32" spans="1:74">
+    <row r="32" spans="1:75">
       <c r="A32" t="s">
         <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G32" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>390</v>
+      </c>
+      <c r="L32" t="s">
+        <v>399</v>
+      </c>
+      <c r="M32" t="s">
+        <v>401</v>
+      </c>
+      <c r="O32" t="s">
         <v>282</v>
       </c>
-      <c r="H32" t="s">
-        <v>283</v>
-      </c>
-      <c r="I32" t="s">
-        <v>284</v>
-      </c>
-      <c r="K32" t="s">
-        <v>394</v>
-      </c>
-      <c r="L32" t="s">
-        <v>135</v>
-      </c>
-      <c r="N32" t="s">
-        <v>286</v>
-      </c>
-      <c r="P32" t="s">
-        <v>169</v>
-      </c>
       <c r="Q32" t="s">
+        <v>167</v>
+      </c>
+      <c r="R32" t="s">
         <v>111</v>
       </c>
-      <c r="U32" t="s">
-        <v>289</v>
-      </c>
       <c r="V32" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z32" t="s">
+        <v>285</v>
+      </c>
+      <c r="W32" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA32" t="s">
         <v>115</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>116</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>117</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>119</v>
       </c>
-      <c r="AL32" t="s">
-        <v>296</v>
+      <c r="AM32" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:74">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" t="s">
+        <v>279</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s">
+        <v>391</v>
+      </c>
+      <c r="L33" t="s">
+        <v>399</v>
+      </c>
+      <c r="M33" t="s">
+        <v>401</v>
+      </c>
+      <c r="O33" t="s">
         <v>282</v>
       </c>
-      <c r="H33" t="s">
+      <c r="Q33" t="s">
         <v>283</v>
       </c>
-      <c r="I33" t="s">
+      <c r="R33" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" t="s">
         <v>284</v>
       </c>
-      <c r="J33" t="s">
-        <v>322</v>
-      </c>
-      <c r="K33" t="s">
-        <v>395</v>
-      </c>
-      <c r="L33" t="s">
-        <v>135</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="V33" t="s">
+        <v>285</v>
+      </c>
+      <c r="W33" t="s">
         <v>286</v>
       </c>
-      <c r="P33" t="s">
+      <c r="X33" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y33" t="s">
         <v>287</v>
       </c>
-      <c r="Q33" t="s">
-        <v>111</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="Z33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE33" t="s">
         <v>288</v>
       </c>
-      <c r="U33" t="s">
-        <v>289</v>
-      </c>
-      <c r="V33" t="s">
-        <v>290</v>
-      </c>
-      <c r="W33" t="s">
-        <v>253</v>
-      </c>
-      <c r="X33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD33" t="s">
+      <c r="AF33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM33" t="s">
         <v>292</v>
       </c>
-      <c r="AE33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>296</v>
-      </c>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:74">
       <c r="A34" t="s">
         <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G34" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" t="s">
+        <v>399</v>
+      </c>
+      <c r="M34" t="s">
+        <v>401</v>
+      </c>
+      <c r="O34" t="s">
         <v>282</v>
       </c>
-      <c r="H34" t="s">
-        <v>283</v>
-      </c>
-      <c r="I34" t="s">
-        <v>284</v>
-      </c>
-      <c r="K34" t="s">
-        <v>394</v>
-      </c>
-      <c r="L34" t="s">
-        <v>135</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" t="s">
+        <v>111</v>
+      </c>
+      <c r="V34" t="s">
+        <v>285</v>
+      </c>
+      <c r="W34" t="s">
         <v>286</v>
       </c>
-      <c r="P34" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>111</v>
-      </c>
-      <c r="U34" t="s">
-        <v>289</v>
-      </c>
-      <c r="V34" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>115</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>116</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>117</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>119</v>
       </c>
-      <c r="AL34" t="s">
-        <v>296</v>
+      <c r="AM34" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:73">
+    <row r="35" spans="1:74">
       <c r="A35" t="s">
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>392</v>
+      </c>
+      <c r="L35" t="s">
+        <v>399</v>
+      </c>
+      <c r="M35" t="s">
+        <v>401</v>
+      </c>
+      <c r="O35" t="s">
         <v>282</v>
       </c>
-      <c r="H35" t="s">
+      <c r="Q35" t="s">
         <v>283</v>
       </c>
-      <c r="I35" t="s">
+      <c r="R35" t="s">
+        <v>111</v>
+      </c>
+      <c r="T35" t="s">
         <v>284</v>
       </c>
-      <c r="J35" t="s">
-        <v>325</v>
-      </c>
-      <c r="K35" t="s">
-        <v>396</v>
-      </c>
-      <c r="L35" t="s">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="V35" t="s">
+        <v>285</v>
+      </c>
+      <c r="W35" t="s">
         <v>286</v>
       </c>
-      <c r="P35" t="s">
+      <c r="X35" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y35" t="s">
         <v>287</v>
       </c>
-      <c r="Q35" t="s">
-        <v>111</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="Z35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE35" t="s">
         <v>288</v>
       </c>
-      <c r="U35" t="s">
-        <v>289</v>
-      </c>
-      <c r="V35" t="s">
-        <v>290</v>
-      </c>
-      <c r="W35" t="s">
-        <v>253</v>
-      </c>
-      <c r="X35" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>119</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:73">
+    <row r="36" spans="1:74">
       <c r="A36" t="s">
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
         <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" t="s">
+        <v>279</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>393</v>
+      </c>
+      <c r="L36" t="s">
+        <v>399</v>
+      </c>
+      <c r="M36" t="s">
+        <v>401</v>
+      </c>
+      <c r="O36" t="s">
         <v>282</v>
       </c>
-      <c r="H36" t="s">
+      <c r="Q36" t="s">
         <v>283</v>
       </c>
-      <c r="I36" t="s">
+      <c r="R36" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" t="s">
         <v>284</v>
       </c>
-      <c r="J36" t="s">
+      <c r="V36" t="s">
+        <v>285</v>
+      </c>
+      <c r="W36" t="s">
+        <v>286</v>
+      </c>
+      <c r="X36" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA36" t="s">
         <v>327</v>
       </c>
-      <c r="K36" t="s">
-        <v>397</v>
-      </c>
-      <c r="L36" t="s">
-        <v>135</v>
-      </c>
-      <c r="N36" t="s">
-        <v>286</v>
-      </c>
-      <c r="P36" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>111</v>
-      </c>
-      <c r="S36" t="s">
-        <v>288</v>
-      </c>
-      <c r="U36" t="s">
-        <v>289</v>
-      </c>
-      <c r="V36" t="s">
-        <v>290</v>
-      </c>
-      <c r="W36" t="s">
-        <v>253</v>
-      </c>
-      <c r="X36" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL36" t="s">
+      <c r="BB36" t="s">
         <v>328</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="BC36" t="s">
         <v>329</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="BD36" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE36" t="s">
         <v>330</v>
       </c>
-      <c r="AX36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ36" t="s">
+      <c r="BF36" t="s">
         <v>331</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BG36" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH36" t="s">
         <v>332</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BQ36" t="s">
         <v>333</v>
       </c>
-      <c r="BC36" t="s">
-        <v>311</v>
-      </c>
-      <c r="BD36" t="s">
+      <c r="BR36" t="s">
         <v>334</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BU36" t="s">
         <v>335</v>
       </c>
-      <c r="BF36" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG36" t="s">
+      <c r="BV36" t="s">
         <v>336</v>
       </c>
-      <c r="BP36" t="s">
-        <v>337</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>338</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>339</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>340</v>
-      </c>
     </row>
-    <row r="37" spans="1:73">
+    <row r="37" spans="1:74">
       <c r="A37" t="s">
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
         <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" t="s">
+        <v>279</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>394</v>
+      </c>
+      <c r="L37" t="s">
+        <v>399</v>
+      </c>
+      <c r="M37" t="s">
+        <v>401</v>
+      </c>
+      <c r="O37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>283</v>
+      </c>
+      <c r="R37" t="s">
+        <v>111</v>
+      </c>
+      <c r="T37" t="s">
+        <v>284</v>
+      </c>
+      <c r="V37" t="s">
+        <v>285</v>
+      </c>
+      <c r="W37" t="s">
+        <v>286</v>
+      </c>
+      <c r="X37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS37" t="s">
         <v>342</v>
       </c>
-      <c r="H37" t="s">
-        <v>283</v>
-      </c>
-      <c r="I37" t="s">
-        <v>284</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="AY37" t="s">
         <v>343</v>
       </c>
-      <c r="K37" t="s">
-        <v>398</v>
-      </c>
-      <c r="L37" t="s">
-        <v>135</v>
-      </c>
-      <c r="N37" t="s">
-        <v>286</v>
-      </c>
-      <c r="P37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>111</v>
-      </c>
-      <c r="S37" t="s">
-        <v>288</v>
-      </c>
-      <c r="U37" t="s">
-        <v>289</v>
-      </c>
-      <c r="V37" t="s">
-        <v>290</v>
-      </c>
-      <c r="W37" t="s">
-        <v>253</v>
-      </c>
-      <c r="X37" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL37" t="s">
+      <c r="BA37" t="s">
         <v>344</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="BB37" t="s">
         <v>345</v>
       </c>
-      <c r="AR37" t="s">
+      <c r="BC37" t="s">
         <v>346</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="BD37" t="s">
         <v>347</v>
       </c>
-      <c r="AZ37" t="s">
+      <c r="BE37" t="s">
         <v>348</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BF37" t="s">
         <v>349</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BG37" t="s">
         <v>350</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BH37" t="s">
         <v>351</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BJ37" t="s">
         <v>352</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BQ37" t="s">
         <v>353</v>
       </c>
-      <c r="BF37" t="s">
-        <v>354</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>355</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>356</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>357</v>
-      </c>
     </row>
-    <row r="38" spans="1:73">
+    <row r="38" spans="1:74">
       <c r="A38" t="s">
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" t="s">
+        <v>395</v>
+      </c>
+      <c r="L38" t="s">
+        <v>399</v>
+      </c>
+      <c r="M38" t="s">
+        <v>401</v>
+      </c>
+      <c r="O38" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q38" t="s">
         <v>283</v>
       </c>
-      <c r="I38" t="s">
+      <c r="R38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T38" t="s">
         <v>284</v>
       </c>
-      <c r="J38" t="s">
-        <v>359</v>
-      </c>
-      <c r="K38" t="s">
-        <v>399</v>
-      </c>
-      <c r="L38" t="s">
-        <v>135</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="V38" t="s">
+        <v>285</v>
+      </c>
+      <c r="W38" t="s">
         <v>286</v>
       </c>
-      <c r="P38" t="s">
+      <c r="X38" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y38" t="s">
         <v>287</v>
       </c>
-      <c r="Q38" t="s">
-        <v>111</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="Z38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE38" t="s">
         <v>288</v>
       </c>
-      <c r="U38" t="s">
-        <v>289</v>
-      </c>
-      <c r="V38" t="s">
-        <v>290</v>
-      </c>
-      <c r="W38" t="s">
-        <v>253</v>
-      </c>
-      <c r="X38" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="AF38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM38" t="s">
         <v>292</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1" xr:uid="{73421BB1-D71B-4F52-95A0-C15A5692728C}"/>
     <hyperlink ref="I23" r:id="rId2" xr:uid="{967FDE85-FA4B-4EC1-930F-2D16930CAC72}"/>

--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE68B741-CE66-4A16-806E-07F7A4A056A7}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49013A23-CF6D-4446-BB93-27169C4772B4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="403">
   <si>
     <t>file_type</t>
   </si>
@@ -1182,9 +1182,6 @@
     <t>096U20160107_pig</t>
   </si>
   <si>
-    <t>GLODAPv2.2020_pig1; GLODAPv2.2020_pig2</t>
-  </si>
-  <si>
     <t>096U20160314_pig</t>
   </si>
   <si>
@@ -1243,6 +1240,9 @@
   </si>
   <si>
     <t>ANTXVIII_2</t>
+  </si>
+  <si>
+    <t>.sb</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1623,7 @@
   <dimension ref="A1:BW38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1666,7 +1666,7 @@
         <v>359</v>
       </c>
       <c r="L1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1893,7 +1893,7 @@
         <v>360</v>
       </c>
       <c r="L2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M2" t="s">
         <v>110</v>
@@ -1970,7 +1970,7 @@
         <v>361</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>124</v>
@@ -2050,7 +2050,7 @@
         <v>362</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M4" t="s">
         <v>130</v>
@@ -2106,10 +2106,10 @@
         <v>363</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R5" t="s">
         <v>111</v>
@@ -2243,10 +2243,10 @@
         <v>364</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R6" t="s">
         <v>111</v>
@@ -2329,10 +2329,10 @@
         <v>365</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q7" t="s">
         <v>158</v>
@@ -2412,7 +2412,7 @@
         <v>366</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M8" t="s">
         <v>163</v>
@@ -2513,10 +2513,10 @@
         <v>367</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q9" t="s">
         <v>167</v>
@@ -2593,7 +2593,7 @@
         <v>369</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M10" t="s">
         <v>163</v>
@@ -2691,7 +2691,7 @@
         <v>370</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M11" t="s">
         <v>163</v>
@@ -2789,7 +2789,7 @@
         <v>372</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M12" t="s">
         <v>163</v>
@@ -2899,7 +2899,7 @@
         <v>373</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M13" t="s">
         <v>181</v>
@@ -3048,7 +3048,7 @@
         <v>374</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M14" t="s">
         <v>163</v>
@@ -3149,7 +3149,7 @@
         <v>371</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M15" t="s">
         <v>163</v>
@@ -3250,7 +3250,7 @@
         <v>375</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M16" t="s">
         <v>181</v>
@@ -3399,7 +3399,7 @@
         <v>376</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M17" t="s">
         <v>181</v>
@@ -3557,10 +3557,10 @@
         <v>377</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>379</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
         <v>208</v>
@@ -3637,7 +3637,7 @@
         <v>380</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M19" t="s">
         <v>214</v>
@@ -3687,9 +3687,6 @@
       <c r="AJ19" t="s">
         <v>226</v>
       </c>
-      <c r="AL19" t="s">
-        <v>227</v>
-      </c>
       <c r="AM19" t="s">
         <v>228</v>
       </c>
@@ -3699,9 +3696,6 @@
       <c r="AQ19" t="s">
         <v>230</v>
       </c>
-      <c r="AR19" t="s">
-        <v>231</v>
-      </c>
       <c r="AT19" t="s">
         <v>232</v>
       </c>
@@ -3725,9 +3719,6 @@
       </c>
       <c r="BF19" t="s">
         <v>147</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>185</v>
       </c>
       <c r="BH19" t="s">
         <v>164</v>
@@ -3792,7 +3783,7 @@
         <v>380</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M20" t="s">
         <v>237</v>
@@ -3922,14 +3913,11 @@
       <c r="J21" t="s">
         <v>245</v>
       </c>
-      <c r="K21" t="s">
-        <v>382</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R21" t="s">
         <v>111</v>
@@ -3994,7 +3982,7 @@
         <v>381</v>
       </c>
       <c r="L22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M22" t="s">
         <v>237</v>
@@ -4155,10 +4143,10 @@
         <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M23" t="s">
         <v>237</v>
@@ -4325,7 +4313,7 @@
         <v>380</v>
       </c>
       <c r="L24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M24" t="s">
         <v>214</v>
@@ -4471,10 +4459,10 @@
         <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M25" t="s">
         <v>214</v>
@@ -4641,7 +4629,7 @@
         <v>380</v>
       </c>
       <c r="L26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M26" t="s">
         <v>214</v>
@@ -4784,13 +4772,13 @@
         <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O27" t="s">
         <v>282</v>
@@ -4870,13 +4858,13 @@
         <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O28" t="s">
         <v>282</v>
@@ -4956,13 +4944,13 @@
         <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q29" t="s">
         <v>167</v>
@@ -5075,13 +5063,13 @@
         <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O30" t="s">
         <v>282</v>
@@ -5164,13 +5152,13 @@
         <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O31" t="s">
         <v>282</v>
@@ -5250,13 +5238,13 @@
         <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O32" t="s">
         <v>282</v>
@@ -5321,13 +5309,13 @@
         <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O33" t="s">
         <v>282</v>
@@ -5407,13 +5395,13 @@
         <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O34" t="s">
         <v>282</v>
@@ -5478,13 +5466,13 @@
         <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O35" t="s">
         <v>282</v>
@@ -5564,13 +5552,13 @@
         <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O36" t="s">
         <v>282</v>
@@ -5695,13 +5683,13 @@
         <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O37" t="s">
         <v>282</v>
@@ -5823,13 +5811,13 @@
         <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O38" t="s">
         <v>282</v>

--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49013A23-CF6D-4446-BB93-27169C4772B4}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185214FB-D5B1-4DFC-A0A1-F68EE9DB51BE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="402">
   <si>
     <t>file_type</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Chla_ide</t>
   </si>
   <si>
-    <t>Chla_ allom</t>
-  </si>
-  <si>
     <t>Chla_prime</t>
   </si>
   <si>
@@ -897,9 +894,6 @@
     <t>%d/%m/%Y</t>
   </si>
   <si>
-    <t>%H:%M:%S %p</t>
-  </si>
-  <si>
     <t>NominalDepth</t>
   </si>
   <si>
@@ -984,9 +978,6 @@
     <t>E:/Data_downloads/AADC/HPLC/09AR19931119</t>
   </si>
   <si>
-    <t>%d-%b-%Y</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/09AR19940101</t>
   </si>
   <si>
@@ -1243,6 +1234,12 @@
   </si>
   <si>
     <t>.sb</t>
+  </si>
+  <si>
+    <t>Chla_allom</t>
+  </si>
+  <si>
+    <t>%I:%M:%S %p</t>
   </si>
 </sst>
 </file>
@@ -1622,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1663,10 +1660,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1753,183 +1750,183 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>71</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:75">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>107</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" t="s">
-        <v>360</v>
-      </c>
-      <c r="L2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>110</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>111</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>112</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>113</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" t="s">
         <v>114</v>
       </c>
-      <c r="X2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>116</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>117</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>118</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>119</v>
       </c>
       <c r="AG2" t="s">
         <v>36</v>
@@ -1937,135 +1934,135 @@
     </row>
     <row r="3" spans="1:75" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="R3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
         <v>127</v>
       </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>128</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M4" t="s">
         <v>129</v>
       </c>
-      <c r="K4" t="s">
-        <v>362</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M4" t="s">
-        <v>130</v>
-      </c>
       <c r="R4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" t="s">
         <v>111</v>
       </c>
-      <c r="T4" t="s">
-        <v>112</v>
-      </c>
       <c r="AE4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF4" t="s">
         <v>118</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>119</v>
       </c>
       <c r="AG4" t="s">
         <v>36</v>
@@ -2073,1530 +2070,1530 @@
     </row>
     <row r="5" spans="1:75">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
         <v>132</v>
       </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>133</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M5" t="s">
+        <v>397</v>
+      </c>
+      <c r="R5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W5" t="s">
+        <v>113</v>
+      </c>
+      <c r="X5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5" t="s">
         <v>134</v>
       </c>
-      <c r="K5" t="s">
-        <v>363</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M5" t="s">
-        <v>400</v>
-      </c>
-      <c r="R5" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" t="s">
-        <v>112</v>
-      </c>
-      <c r="V5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
         <v>114</v>
       </c>
-      <c r="X5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD5" t="s">
         <v>135</v>
       </c>
-      <c r="AA5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>117</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>136</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>137</v>
       </c>
       <c r="AM5" t="s">
         <v>36</v>
       </c>
       <c r="AN5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO5" t="s">
         <v>138</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>139</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR5" t="s">
         <v>140</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX5" t="s">
         <v>141</v>
       </c>
-      <c r="AS5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA5" t="s">
         <v>142</v>
       </c>
-      <c r="AY5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>143</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>144</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE5" t="s">
         <v>145</v>
       </c>
-      <c r="BD5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>146</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BI5" t="s">
         <v>147</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BQ5" t="s">
         <v>148</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BU5" t="s">
         <v>149</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>150</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:75">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" t="s">
-        <v>153</v>
-      </c>
       <c r="K6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" t="s">
         <v>111</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>112</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>113</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" t="s">
         <v>114</v>
       </c>
-      <c r="X6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD6" t="s">
         <v>135</v>
       </c>
-      <c r="AA6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>117</v>
       </c>
-      <c r="AD6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>118</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>119</v>
       </c>
       <c r="AG6" t="s">
         <v>36</v>
       </c>
       <c r="AI6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:75">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
         <v>155</v>
       </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>156</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q7" t="s">
         <v>157</v>
       </c>
-      <c r="K7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>158</v>
-      </c>
       <c r="R7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T7" t="s">
         <v>111</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>112</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>113</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" t="s">
         <v>114</v>
       </c>
-      <c r="X7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>115</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>116</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>117</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>119</v>
       </c>
       <c r="AG7" t="s">
         <v>36</v>
       </c>
       <c r="AH7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:75">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
         <v>159</v>
       </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
         <v>160</v>
       </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>161</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M8" t="s">
         <v>162</v>
-      </c>
-      <c r="K8" t="s">
-        <v>366</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M8" t="s">
-        <v>163</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" t="s">
         <v>111</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>112</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>113</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" t="s">
         <v>114</v>
       </c>
-      <c r="X8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>115</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>116</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>117</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>118</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>119</v>
       </c>
       <c r="AM8" t="s">
         <v>36</v>
       </c>
       <c r="AQ8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB8" t="s">
         <v>143</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>144</v>
       </c>
-      <c r="BC8" t="s">
-        <v>145</v>
-      </c>
       <c r="BD8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BF8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:75">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" t="s">
         <v>165</v>
       </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" t="s">
+        <v>364</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M9" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q9" t="s">
         <v>166</v>
       </c>
-      <c r="J9" t="s">
-        <v>368</v>
-      </c>
-      <c r="K9" t="s">
-        <v>367</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M9" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" t="s">
         <v>167</v>
       </c>
-      <c r="R9" t="s">
-        <v>111</v>
-      </c>
-      <c r="V9" t="s">
-        <v>113</v>
-      </c>
-      <c r="W9" t="s">
-        <v>168</v>
-      </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" t="s">
         <v>115</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>116</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>117</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>118</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>119</v>
       </c>
       <c r="AG9" t="s">
         <v>36</v>
       </c>
       <c r="AH9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:75">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" t="s">
         <v>169</v>
       </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" t="s">
-        <v>170</v>
-      </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" t="s">
         <v>111</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>112</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>113</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA10" t="s">
         <v>114</v>
       </c>
-      <c r="X10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>115</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>116</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>117</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>118</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>119</v>
       </c>
       <c r="AM10" t="s">
         <v>36</v>
       </c>
       <c r="AQ10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB10" t="s">
         <v>143</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>144</v>
       </c>
-      <c r="BC10" t="s">
-        <v>145</v>
-      </c>
       <c r="BD10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BH10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:75">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
         <v>171</v>
       </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" t="s">
-        <v>172</v>
-      </c>
       <c r="K11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V11" t="s">
+        <v>112</v>
+      </c>
+      <c r="W11" t="s">
         <v>113</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA11" t="s">
         <v>114</v>
       </c>
-      <c r="X11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>115</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>116</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>117</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>118</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>119</v>
       </c>
       <c r="AM11" t="s">
         <v>36</v>
       </c>
       <c r="AQ11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB11" t="s">
         <v>143</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>144</v>
       </c>
-      <c r="BC11" t="s">
-        <v>145</v>
-      </c>
       <c r="BD11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BH11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:75">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" t="s">
         <v>173</v>
       </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" t="s">
-        <v>174</v>
-      </c>
       <c r="K12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" t="s">
         <v>111</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>112</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>113</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" t="s">
         <v>114</v>
       </c>
-      <c r="X12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>115</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>116</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>118</v>
       </c>
-      <c r="AF12" t="s">
-        <v>119</v>
-      </c>
       <c r="AL12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM12" t="s">
         <v>36</v>
       </c>
       <c r="AQ12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AR12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BA12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB12" t="s">
         <v>143</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>144</v>
       </c>
-      <c r="BC12" t="s">
-        <v>145</v>
-      </c>
       <c r="BD12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BF12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:75">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
         <v>177</v>
       </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
         <v>178</v>
       </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>179</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M13" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" t="s">
-        <v>373</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M13" t="s">
-        <v>181</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" t="s">
+        <v>181</v>
+      </c>
+      <c r="R13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" t="s">
+        <v>167</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>182</v>
       </c>
-      <c r="R13" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13" t="s">
-        <v>112</v>
-      </c>
-      <c r="V13" t="s">
-        <v>113</v>
-      </c>
-      <c r="W13" t="s">
-        <v>168</v>
-      </c>
-      <c r="X13" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>183</v>
-      </c>
       <c r="AL13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s">
         <v>36</v>
       </c>
       <c r="AN13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG13" t="s">
         <v>184</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG13" t="s">
+      <c r="BH13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>185</v>
       </c>
-      <c r="BH13" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>186</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>187</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BP13" t="s">
         <v>188</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR13" t="s">
         <v>189</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:75">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" t="s">
         <v>191</v>
       </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14" t="s">
-        <v>192</v>
-      </c>
       <c r="K14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" t="s">
         <v>111</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>112</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>113</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA14" t="s">
         <v>114</v>
       </c>
-      <c r="X14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>115</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>116</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>117</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>118</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>119</v>
       </c>
       <c r="AM14" t="s">
         <v>36</v>
       </c>
       <c r="AQ14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB14" t="s">
         <v>143</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>144</v>
       </c>
-      <c r="BC14" t="s">
-        <v>145</v>
-      </c>
       <c r="BD14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BF14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:75">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
         <v>193</v>
       </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" t="s">
-        <v>194</v>
-      </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V15" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" t="s">
         <v>113</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" t="s">
         <v>114</v>
       </c>
-      <c r="X15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>115</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>116</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>117</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>118</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>119</v>
       </c>
       <c r="AM15" t="s">
         <v>36</v>
       </c>
       <c r="AQ15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB15" t="s">
         <v>143</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>144</v>
       </c>
-      <c r="BC15" t="s">
-        <v>145</v>
-      </c>
       <c r="BD15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BF15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:75">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" t="s">
         <v>195</v>
       </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" t="s">
-        <v>196</v>
-      </c>
       <c r="K16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16" t="s">
+        <v>181</v>
+      </c>
+      <c r="R16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" t="s">
+        <v>111</v>
+      </c>
+      <c r="V16" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>182</v>
       </c>
-      <c r="R16" t="s">
-        <v>111</v>
-      </c>
-      <c r="T16" t="s">
-        <v>112</v>
-      </c>
-      <c r="V16" t="s">
-        <v>113</v>
-      </c>
-      <c r="W16" t="s">
-        <v>114</v>
-      </c>
-      <c r="X16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>183</v>
-      </c>
       <c r="AL16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s">
         <v>36</v>
       </c>
       <c r="AN16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG16" t="s">
         <v>184</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>185</v>
       </c>
-      <c r="BH16" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>186</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>187</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BP16" t="s">
         <v>188</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR16" t="s">
         <v>189</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:75">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
         <v>197</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" t="s">
-        <v>198</v>
-      </c>
       <c r="K17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" t="s">
+        <v>181</v>
+      </c>
+      <c r="R17" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>182</v>
       </c>
-      <c r="R17" t="s">
-        <v>111</v>
-      </c>
-      <c r="T17" t="s">
-        <v>112</v>
-      </c>
-      <c r="V17" t="s">
-        <v>113</v>
-      </c>
-      <c r="W17" t="s">
-        <v>114</v>
-      </c>
-      <c r="X17" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>183</v>
-      </c>
       <c r="AL17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s">
         <v>36</v>
       </c>
       <c r="AN17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG17" t="s">
         <v>184</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>185</v>
       </c>
-      <c r="BH17" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>186</v>
-      </c>
       <c r="BK17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL17" t="s">
         <v>199</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BP17" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU17" t="s">
         <v>200</v>
       </c>
-      <c r="BP17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>190</v>
-      </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>201</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:75">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
         <v>203</v>
       </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
         <v>204</v>
       </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>205</v>
       </c>
-      <c r="J18" t="s">
-        <v>206</v>
-      </c>
       <c r="K18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" t="s">
         <v>111</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>112</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>113</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA18" t="s">
         <v>114</v>
       </c>
-      <c r="X18" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>115</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>116</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>117</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>118</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>119</v>
       </c>
       <c r="AG18" t="s">
         <v>36</v>
@@ -3604,43 +3601,43 @@
     </row>
     <row r="19" spans="1:75">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F19" t="s">
         <v>208</v>
       </c>
-      <c r="E19" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>209</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>210</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>211</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>212</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>377</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M19" t="s">
         <v>213</v>
-      </c>
-      <c r="K19" t="s">
-        <v>380</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M19" t="s">
-        <v>214</v>
       </c>
       <c r="O19">
         <v>-9999</v>
@@ -3649,144 +3646,144 @@
         <v>-8888</v>
       </c>
       <c r="R19" t="s">
+        <v>214</v>
+      </c>
+      <c r="T19" t="s">
         <v>215</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>216</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>217</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>218</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>219</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>220</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>221</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD19" t="s">
         <v>222</v>
       </c>
-      <c r="AC19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>223</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>224</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AJ19" t="s">
         <v>225</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>226</v>
-      </c>
       <c r="AM19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN19" t="s">
         <v>228</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AQ19" t="s">
         <v>229</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>230</v>
-      </c>
       <c r="AT19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY19" t="s">
         <v>232</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="BA19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO19" t="s">
         <v>233</v>
       </c>
-      <c r="BA19" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>186</v>
-      </c>
-      <c r="BO19" t="s">
+      <c r="BP19" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW19" t="s">
         <v>234</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>190</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:75">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" t="s">
+        <v>211</v>
+      </c>
+      <c r="J20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" t="s">
+        <v>377</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M20" t="s">
         <v>236</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
-      </c>
-      <c r="I20" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M20" t="s">
-        <v>237</v>
       </c>
       <c r="O20">
         <v>-9999</v>
@@ -3795,197 +3792,197 @@
         <v>-8888</v>
       </c>
       <c r="R20" t="s">
+        <v>214</v>
+      </c>
+      <c r="T20" t="s">
         <v>215</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>216</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>217</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>218</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>219</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>220</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>221</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD20" t="s">
         <v>222</v>
       </c>
-      <c r="AC20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>223</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>224</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AJ20" t="s">
         <v>225</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>226</v>
       </c>
-      <c r="AL20" t="s">
-        <v>227</v>
-      </c>
       <c r="AN20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AW20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW20" t="s">
         <v>238</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>186</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>234</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:75">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
         <v>240</v>
       </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
         <v>241</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>242</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" t="s">
         <v>244</v>
       </c>
-      <c r="J21" t="s">
-        <v>245</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="R21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T21" t="s">
+        <v>215</v>
+      </c>
+      <c r="V21" t="s">
         <v>216</v>
       </c>
-      <c r="V21" t="s">
-        <v>217</v>
-      </c>
       <c r="X21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AC21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF21" t="s">
         <v>224</v>
       </c>
-      <c r="AF21" t="s">
-        <v>225</v>
-      </c>
       <c r="AG21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:75">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O22">
         <v>-999</v>
@@ -3994,162 +3991,162 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T22" t="s">
+        <v>252</v>
+      </c>
+      <c r="V22" t="s">
+        <v>250</v>
+      </c>
+      <c r="W22" t="s">
+        <v>251</v>
+      </c>
+      <c r="X22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>253</v>
       </c>
-      <c r="V22" t="s">
-        <v>251</v>
-      </c>
-      <c r="W22" t="s">
-        <v>252</v>
-      </c>
-      <c r="X22" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AL22" t="s">
         <v>254</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>255</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>256</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AQ22" t="s">
         <v>257</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>258</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AU22" t="s">
         <v>259</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AW22" t="s">
         <v>260</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>261</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>262</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>263</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>264</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>265</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK22" t="s">
         <v>266</v>
       </c>
-      <c r="BC22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>185</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK22" t="s">
+      <c r="BL22" t="s">
         <v>267</v>
       </c>
-      <c r="BL22" t="s">
+      <c r="BO22" t="s">
         <v>268</v>
       </c>
-      <c r="BO22" t="s">
-        <v>269</v>
-      </c>
       <c r="BP22" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR22" t="s">
         <v>189</v>
       </c>
-      <c r="BQ22" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>190</v>
-      </c>
       <c r="BU22" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV22" t="s">
         <v>70</v>
       </c>
-      <c r="BV22" t="s">
-        <v>71</v>
-      </c>
       <c r="BW22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:75">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" t="s">
         <v>242</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="K23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O23">
         <v>-999</v>
@@ -4158,165 +4155,165 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T23" t="s">
+        <v>252</v>
+      </c>
+      <c r="V23" t="s">
+        <v>250</v>
+      </c>
+      <c r="W23" t="s">
+        <v>251</v>
+      </c>
+      <c r="X23" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>253</v>
       </c>
-      <c r="V23" t="s">
-        <v>251</v>
-      </c>
-      <c r="W23" t="s">
-        <v>252</v>
-      </c>
-      <c r="X23" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="AL23" t="s">
         <v>254</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>255</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>256</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AQ23" t="s">
         <v>257</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>258</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AU23" t="s">
         <v>259</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AW23" t="s">
         <v>260</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>261</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>262</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>263</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>264</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>265</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK23" t="s">
         <v>266</v>
       </c>
-      <c r="BC23" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>185</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK23" t="s">
+      <c r="BL23" t="s">
         <v>267</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BO23" t="s">
         <v>268</v>
       </c>
-      <c r="BO23" t="s">
-        <v>269</v>
-      </c>
       <c r="BP23" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR23" t="s">
         <v>189</v>
       </c>
-      <c r="BQ23" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>190</v>
-      </c>
       <c r="BU23" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV23" t="s">
         <v>70</v>
       </c>
-      <c r="BV23" t="s">
-        <v>71</v>
-      </c>
       <c r="BW23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:75">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
         <v>207</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
         <v>208</v>
       </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>209</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>210</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>211</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>212</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>377</v>
+      </c>
+      <c r="L24" t="s">
+        <v>395</v>
+      </c>
+      <c r="M24" t="s">
         <v>213</v>
-      </c>
-      <c r="K24" t="s">
-        <v>380</v>
-      </c>
-      <c r="L24" t="s">
-        <v>398</v>
-      </c>
-      <c r="M24" t="s">
-        <v>214</v>
       </c>
       <c r="O24">
         <v>-9999</v>
@@ -4325,147 +4322,147 @@
         <v>-8888</v>
       </c>
       <c r="R24" t="s">
+        <v>214</v>
+      </c>
+      <c r="T24" t="s">
         <v>215</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>216</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>217</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>218</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>219</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>220</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>221</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD24" t="s">
         <v>222</v>
       </c>
-      <c r="AC24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>223</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>224</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AJ24" t="s">
         <v>225</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>226</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>227</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>228</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AQ24" t="s">
         <v>229</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>230</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AT24" t="s">
         <v>231</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AY24" t="s">
         <v>232</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="BA24" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO24" t="s">
         <v>233</v>
       </c>
-      <c r="BA24" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>185</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>186</v>
-      </c>
-      <c r="BO24" t="s">
+      <c r="BP24" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW24" t="s">
         <v>234</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>190</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:75">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
         <v>246</v>
       </c>
-      <c r="C25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
         <v>247</v>
       </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>248</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>249</v>
       </c>
-      <c r="I25" t="s">
-        <v>250</v>
-      </c>
       <c r="K25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O25">
         <v>-999</v>
@@ -4474,165 +4471,165 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V25" t="s">
+        <v>250</v>
+      </c>
+      <c r="W25" t="s">
         <v>251</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z25" t="s">
         <v>252</v>
       </c>
-      <c r="X25" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>253</v>
       </c>
-      <c r="AA25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ25" t="s">
+      <c r="AL25" t="s">
         <v>254</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>255</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>256</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AQ25" t="s">
         <v>257</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>258</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AU25" t="s">
         <v>259</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AW25" t="s">
         <v>260</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>261</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>262</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>263</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>264</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>265</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK25" t="s">
         <v>266</v>
       </c>
-      <c r="BC25" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>185</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK25" t="s">
+      <c r="BL25" t="s">
         <v>267</v>
       </c>
-      <c r="BL25" t="s">
+      <c r="BO25" t="s">
         <v>268</v>
       </c>
-      <c r="BO25" t="s">
-        <v>269</v>
-      </c>
       <c r="BP25" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR25" t="s">
         <v>189</v>
       </c>
-      <c r="BQ25" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>190</v>
-      </c>
       <c r="BU25" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV25" t="s">
         <v>70</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:75">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" t="s">
         <v>207</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
         <v>208</v>
       </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>209</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>210</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>211</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>212</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>377</v>
+      </c>
+      <c r="L26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M26" t="s">
         <v>213</v>
-      </c>
-      <c r="K26" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26" t="s">
-        <v>398</v>
-      </c>
-      <c r="M26" t="s">
-        <v>214</v>
       </c>
       <c r="O26">
         <v>-9999</v>
@@ -4641,186 +4638,186 @@
         <v>-8888</v>
       </c>
       <c r="R26" t="s">
+        <v>214</v>
+      </c>
+      <c r="T26" t="s">
         <v>215</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>216</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>217</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>218</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>219</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>220</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>221</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD26" t="s">
         <v>222</v>
       </c>
-      <c r="AC26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>223</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>224</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AJ26" t="s">
         <v>225</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>226</v>
-      </c>
       <c r="AM26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN26" t="s">
         <v>228</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AQ26" t="s">
         <v>229</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>230</v>
-      </c>
       <c r="AT26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY26" t="s">
         <v>232</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="BA26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO26" t="s">
         <v>233</v>
       </c>
-      <c r="BA26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>185</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>186</v>
-      </c>
-      <c r="BO26" t="s">
+      <c r="BP26" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW26" t="s">
         <v>234</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>190</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:75">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
         <v>276</v>
       </c>
-      <c r="C27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
         <v>277</v>
       </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>279</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>280</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>381</v>
+      </c>
+      <c r="L27" t="s">
+        <v>395</v>
+      </c>
+      <c r="M27" t="s">
+        <v>397</v>
+      </c>
+      <c r="O27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
-        <v>384</v>
-      </c>
-      <c r="L27" t="s">
-        <v>398</v>
-      </c>
-      <c r="M27" t="s">
-        <v>400</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>282</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
+        <v>110</v>
+      </c>
+      <c r="T27" t="s">
         <v>283</v>
       </c>
-      <c r="R27" t="s">
-        <v>111</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>284</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>285</v>
       </c>
-      <c r="W27" t="s">
-        <v>286</v>
-      </c>
       <c r="X27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z27" t="s">
         <v>23</v>
       </c>
       <c r="AA27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB27" t="s">
         <v>115</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>116</v>
       </c>
-      <c r="AC27" t="s">
-        <v>117</v>
-      </c>
       <c r="AE27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s">
         <v>36</v>
@@ -4828,293 +4825,293 @@
     </row>
     <row r="28" spans="1:75">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
         <v>277</v>
       </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>278</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>279</v>
       </c>
-      <c r="I28" t="s">
-        <v>280</v>
-      </c>
       <c r="J28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O28" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q28" t="s">
         <v>282</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" t="s">
         <v>283</v>
       </c>
-      <c r="R28" t="s">
-        <v>111</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="V28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>285</v>
       </c>
-      <c r="W28" t="s">
-        <v>286</v>
-      </c>
       <c r="X28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z28" t="s">
         <v>23</v>
       </c>
       <c r="AA28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB28" t="s">
         <v>115</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" t="s">
-        <v>117</v>
-      </c>
       <c r="AD28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:75">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" t="s">
+        <v>383</v>
+      </c>
+      <c r="L29" t="s">
+        <v>395</v>
+      </c>
+      <c r="M29" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>166</v>
+      </c>
+      <c r="R29" t="s">
+        <v>110</v>
+      </c>
+      <c r="V29" t="s">
         <v>293</v>
       </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="W29" t="s">
         <v>294</v>
       </c>
-      <c r="K29" t="s">
-        <v>386</v>
-      </c>
-      <c r="L29" t="s">
-        <v>398</v>
-      </c>
-      <c r="M29" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>167</v>
-      </c>
-      <c r="R29" t="s">
-        <v>111</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="Z29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA29" t="s">
         <v>295</v>
       </c>
-      <c r="W29" t="s">
+      <c r="AB29" t="s">
         <v>296</v>
       </c>
-      <c r="Z29" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AC29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM29" t="s">
         <v>297</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AN29" t="s">
         <v>298</v>
       </c>
-      <c r="AC29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM29" t="s">
+      <c r="AO29" t="s">
         <v>299</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AP29" t="s">
         <v>300</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AQ29" t="s">
         <v>301</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AY29" t="s">
         <v>302</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="BA29" t="s">
         <v>303</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="BB29" t="s">
         <v>304</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BC29" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD29" t="s">
         <v>305</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BE29" t="s">
         <v>306</v>
       </c>
-      <c r="BC29" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD29" t="s">
+      <c r="BF29" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ29" t="s">
         <v>307</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BR29" t="s">
         <v>308</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>309</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:75" ht="15.5" customHeight="1">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
         <v>277</v>
       </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>278</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>279</v>
       </c>
-      <c r="I30" t="s">
-        <v>280</v>
-      </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q30" t="s">
         <v>282</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
+        <v>110</v>
+      </c>
+      <c r="T30" t="s">
         <v>283</v>
       </c>
-      <c r="R30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="V30" t="s">
         <v>284</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>285</v>
       </c>
-      <c r="W30" t="s">
-        <v>286</v>
-      </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z30" t="s">
         <v>23</v>
       </c>
       <c r="AA30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB30" t="s">
         <v>115</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>116</v>
       </c>
-      <c r="AC30" t="s">
-        <v>117</v>
-      </c>
       <c r="AD30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM30" t="s">
         <v>36</v>
@@ -5122,399 +5119,399 @@
     </row>
     <row r="31" spans="1:75">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>278</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>279</v>
       </c>
-      <c r="I31" t="s">
-        <v>280</v>
-      </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M31" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q31" t="s">
         <v>282</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
+        <v>110</v>
+      </c>
+      <c r="T31" t="s">
         <v>283</v>
       </c>
-      <c r="R31" t="s">
-        <v>111</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="V31" t="s">
         <v>284</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>285</v>
       </c>
-      <c r="W31" t="s">
-        <v>286</v>
-      </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z31" t="s">
         <v>23</v>
       </c>
       <c r="AA31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB31" t="s">
         <v>115</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>116</v>
       </c>
-      <c r="AC31" t="s">
-        <v>117</v>
-      </c>
       <c r="AD31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:75">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
         <v>277</v>
       </c>
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>278</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>279</v>
       </c>
-      <c r="I32" t="s">
-        <v>280</v>
-      </c>
       <c r="K32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W32" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AA32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB32" t="s">
         <v>115</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>116</v>
       </c>
-      <c r="AC32" t="s">
-        <v>117</v>
-      </c>
       <c r="AF32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:74">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" t="s">
         <v>277</v>
       </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>278</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>279</v>
       </c>
-      <c r="I33" t="s">
-        <v>280</v>
-      </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M33" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q33" t="s">
         <v>282</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
+        <v>110</v>
+      </c>
+      <c r="T33" t="s">
         <v>283</v>
       </c>
-      <c r="R33" t="s">
-        <v>111</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="V33" t="s">
         <v>284</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>285</v>
       </c>
-      <c r="W33" t="s">
-        <v>286</v>
-      </c>
       <c r="X33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z33" t="s">
         <v>23</v>
       </c>
       <c r="AA33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB33" t="s">
         <v>115</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>116</v>
       </c>
-      <c r="AC33" t="s">
-        <v>117</v>
-      </c>
       <c r="AD33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:74">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" t="s">
         <v>277</v>
       </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>278</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>279</v>
       </c>
-      <c r="I34" t="s">
-        <v>280</v>
-      </c>
       <c r="K34" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V34" t="s">
+        <v>284</v>
+      </c>
+      <c r="W34" t="s">
         <v>285</v>
       </c>
-      <c r="W34" t="s">
-        <v>286</v>
-      </c>
       <c r="AA34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>116</v>
       </c>
-      <c r="AC34" t="s">
-        <v>117</v>
-      </c>
       <c r="AF34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:74">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" t="s">
         <v>277</v>
       </c>
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>278</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>279</v>
       </c>
-      <c r="I35" t="s">
-        <v>280</v>
-      </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O35" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q35" t="s">
         <v>282</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
+        <v>110</v>
+      </c>
+      <c r="T35" t="s">
         <v>283</v>
       </c>
-      <c r="R35" t="s">
-        <v>111</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="V35" t="s">
         <v>284</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>285</v>
       </c>
-      <c r="W35" t="s">
-        <v>286</v>
-      </c>
       <c r="X35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z35" t="s">
         <v>23</v>
       </c>
       <c r="AA35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB35" t="s">
         <v>115</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>116</v>
       </c>
-      <c r="AC35" t="s">
-        <v>117</v>
-      </c>
       <c r="AE35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM35" t="s">
         <v>36</v>
@@ -5522,347 +5519,347 @@
     </row>
     <row r="36" spans="1:74">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" t="s">
         <v>277</v>
       </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>278</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>279</v>
       </c>
-      <c r="I36" t="s">
-        <v>280</v>
-      </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L36" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O36" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q36" t="s">
         <v>282</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
+        <v>110</v>
+      </c>
+      <c r="T36" t="s">
         <v>283</v>
       </c>
-      <c r="R36" t="s">
-        <v>111</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="V36" t="s">
         <v>284</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>285</v>
       </c>
-      <c r="W36" t="s">
-        <v>286</v>
-      </c>
       <c r="X36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y36" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z36" t="s">
         <v>23</v>
       </c>
       <c r="AA36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB36" t="s">
         <v>115</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>116</v>
       </c>
-      <c r="AC36" t="s">
-        <v>117</v>
-      </c>
       <c r="AE36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM36" t="s">
+        <v>321</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>323</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA36" t="s">
         <v>324</v>
       </c>
-      <c r="AQ36" t="s">
+      <c r="BB36" t="s">
         <v>325</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="BC36" t="s">
         <v>326</v>
       </c>
-      <c r="AY36" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA36" t="s">
+      <c r="BD36" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE36" t="s">
         <v>327</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BF36" t="s">
         <v>328</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BG36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH36" t="s">
         <v>329</v>
       </c>
-      <c r="BD36" t="s">
-        <v>307</v>
-      </c>
-      <c r="BE36" t="s">
+      <c r="BQ36" t="s">
         <v>330</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BR36" t="s">
         <v>331</v>
       </c>
-      <c r="BG36" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH36" t="s">
+      <c r="BU36" t="s">
         <v>332</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BV36" t="s">
         <v>333</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>334</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>335</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:74">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H37" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" t="s">
         <v>279</v>
       </c>
-      <c r="I37" t="s">
-        <v>280</v>
-      </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O37" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q37" t="s">
         <v>282</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
+        <v>110</v>
+      </c>
+      <c r="T37" t="s">
         <v>283</v>
       </c>
-      <c r="R37" t="s">
-        <v>111</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="V37" t="s">
         <v>284</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>285</v>
       </c>
-      <c r="W37" t="s">
-        <v>286</v>
-      </c>
       <c r="X37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z37" t="s">
         <v>23</v>
       </c>
       <c r="AA37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>116</v>
       </c>
-      <c r="AC37" t="s">
-        <v>117</v>
-      </c>
       <c r="AD37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AE37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM37" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>338</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY37" t="s">
         <v>340</v>
       </c>
-      <c r="AQ37" t="s">
+      <c r="BA37" t="s">
         <v>341</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="BB37" t="s">
         <v>342</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="BC37" t="s">
         <v>343</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BD37" t="s">
         <v>344</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BE37" t="s">
         <v>345</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BF37" t="s">
         <v>346</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BG37" t="s">
         <v>347</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BH37" t="s">
         <v>348</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BJ37" t="s">
         <v>349</v>
       </c>
-      <c r="BG37" t="s">
+      <c r="BQ37" t="s">
         <v>350</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>351</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>352</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:74">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I38" t="s">
         <v>279</v>
       </c>
-      <c r="I38" t="s">
-        <v>280</v>
-      </c>
       <c r="J38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O38" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q38" t="s">
         <v>282</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
+        <v>110</v>
+      </c>
+      <c r="T38" t="s">
         <v>283</v>
       </c>
-      <c r="R38" t="s">
-        <v>111</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>284</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>285</v>
       </c>
-      <c r="W38" t="s">
-        <v>286</v>
-      </c>
       <c r="X38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y38" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="Z38" t="s">
         <v>23</v>
       </c>
       <c r="AA38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB38" t="s">
         <v>115</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>116</v>
       </c>
-      <c r="AC38" t="s">
-        <v>117</v>
-      </c>
       <c r="AE38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AM38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185214FB-D5B1-4DFC-A0A1-F68EE9DB51BE}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7DA7C8-5C28-4A82-9448-88CE14B1D652}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
@@ -1625,6 +1625,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
     <col min="11" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/product_data/processing_metadata/C1/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C1/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7DA7C8-5C28-4A82-9448-88CE14B1D652}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{2B12B68F-34AA-4C79-B89E-884290959C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814FC0EE-E2BF-4DF8-98C0-992320C71C0C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00480421-414C-413B-BC4D-00F98120957B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="401">
   <si>
     <t>file_type</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>Bottle</t>
-  </si>
-  <si>
-    <t>MG/L</t>
   </si>
   <si>
     <t>Chlide.a</t>
@@ -1295,12 +1292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1619,14 +1615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997538-EC9F-42CD-BFDA-0538E4F1CABF}">
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="11" max="12" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75">
@@ -1661,10 +1657,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1751,7 +1747,7 @@
         <v>37</v>
       </c>
       <c r="AO1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP1" t="s">
         <v>38</v>
@@ -1888,10 +1884,10 @@
         <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
         <v>109</v>
@@ -1933,83 +1929,83 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:75">
+      <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="K3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L3" t="s">
+        <v>393</v>
+      </c>
+      <c r="M3" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" t="s">
         <v>111</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" t="s">
         <v>112</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" t="s">
         <v>113</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" t="s">
         <v>112</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" t="s">
         <v>114</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" t="s">
         <v>115</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" t="s">
         <v>116</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" t="s">
         <v>117</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2045,10 +2041,10 @@
         <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>359</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>394</v>
+        <v>358</v>
+      </c>
+      <c r="L4" t="s">
+        <v>393</v>
       </c>
       <c r="M4" t="s">
         <v>129</v>
@@ -2101,13 +2097,13 @@
         <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>360</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>395</v>
+        <v>359</v>
+      </c>
+      <c r="L5" t="s">
+        <v>394</v>
       </c>
       <c r="M5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R5" t="s">
         <v>110</v>
@@ -2146,64 +2142,64 @@
         <v>117</v>
       </c>
       <c r="AF5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="AM5" t="s">
         <v>36</v>
       </c>
       <c r="AN5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO5" t="s">
         <v>137</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>138</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>139</v>
       </c>
       <c r="AQ5" t="s">
         <v>39</v>
       </c>
       <c r="AR5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS5" t="s">
         <v>39</v>
       </c>
       <c r="AX5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY5" t="s">
         <v>47</v>
       </c>
       <c r="BA5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB5" t="s">
         <v>142</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>143</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>144</v>
       </c>
       <c r="BD5" t="s">
         <v>52</v>
       </c>
       <c r="BE5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF5" t="s">
         <v>145</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BI5" t="s">
         <v>146</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BQ5" t="s">
         <v>147</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BU5" t="s">
         <v>148</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>149</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -2211,7 +2207,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
@@ -2235,16 +2231,16 @@
         <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>361</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>394</v>
+        <v>360</v>
+      </c>
+      <c r="L6" t="s">
+        <v>393</v>
       </c>
       <c r="M6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R6" t="s">
         <v>110</v>
@@ -2289,7 +2285,7 @@
         <v>36</v>
       </c>
       <c r="AI6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -2297,7 +2293,7 @@
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>102</v>
@@ -2312,28 +2308,28 @@
         <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
         <v>106</v>
       </c>
       <c r="I7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
         <v>155</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q7" t="s">
         <v>156</v>
-      </c>
-      <c r="K7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="M7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>157</v>
       </c>
       <c r="R7" t="s">
         <v>110</v>
@@ -2380,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -2395,25 +2391,25 @@
         <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
         <v>106</v>
       </c>
       <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
         <v>160</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" t="s">
+        <v>394</v>
+      </c>
+      <c r="M8" t="s">
         <v>161</v>
-      </c>
-      <c r="K8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M8" t="s">
-        <v>162</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2458,22 +2454,22 @@
         <v>39</v>
       </c>
       <c r="BA8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB8" t="s">
         <v>142</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>143</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>144</v>
       </c>
       <c r="BD8" t="s">
         <v>52</v>
       </c>
       <c r="BF8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BH8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:75">
@@ -2481,7 +2477,7 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -2496,28 +2492,28 @@
         <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
         <v>106</v>
       </c>
       <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>364</v>
+      </c>
+      <c r="K9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" t="s">
+        <v>393</v>
+      </c>
+      <c r="M9" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q9" t="s">
         <v>165</v>
-      </c>
-      <c r="J9" t="s">
-        <v>365</v>
-      </c>
-      <c r="K9" t="s">
-        <v>364</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="M9" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>166</v>
       </c>
       <c r="R9" t="s">
         <v>110</v>
@@ -2526,13 +2522,13 @@
         <v>112</v>
       </c>
       <c r="W9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X9" t="s">
         <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA9" t="s">
         <v>114</v>
@@ -2561,7 +2557,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -2576,25 +2572,25 @@
         <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
         <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>366</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>395</v>
+        <v>365</v>
+      </c>
+      <c r="L10" t="s">
+        <v>394</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2639,19 +2635,19 @@
         <v>39</v>
       </c>
       <c r="BA10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB10" t="s">
         <v>142</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>143</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>144</v>
       </c>
       <c r="BD10" t="s">
         <v>52</v>
       </c>
       <c r="BH10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:75">
@@ -2659,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
         <v>102</v>
@@ -2674,31 +2670,31 @@
         <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
         <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>367</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>395</v>
+        <v>366</v>
+      </c>
+      <c r="L11" t="s">
+        <v>394</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R11" t="s">
         <v>110</v>
@@ -2737,19 +2733,19 @@
         <v>39</v>
       </c>
       <c r="BA11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB11" t="s">
         <v>142</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>143</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>144</v>
       </c>
       <c r="BD11" t="s">
         <v>52</v>
       </c>
       <c r="BH11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:75">
@@ -2757,7 +2753,7 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>102</v>
@@ -2772,25 +2768,25 @@
         <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
         <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>369</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>395</v>
+        <v>368</v>
+      </c>
+      <c r="L12" t="s">
+        <v>394</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2832,7 +2828,7 @@
         <v>118</v>
       </c>
       <c r="AL12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM12" t="s">
         <v>36</v>
@@ -2841,25 +2837,25 @@
         <v>39</v>
       </c>
       <c r="AR12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BA12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB12" t="s">
         <v>142</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>143</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>144</v>
       </c>
       <c r="BD12" t="s">
         <v>52</v>
       </c>
       <c r="BF12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BH12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:75">
@@ -2867,7 +2863,7 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
@@ -2882,31 +2878,31 @@
         <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
         <v>106</v>
       </c>
       <c r="I13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" t="s">
         <v>178</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" t="s">
+        <v>394</v>
+      </c>
+      <c r="M13" t="s">
         <v>179</v>
-      </c>
-      <c r="K13" t="s">
-        <v>370</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M13" t="s">
-        <v>180</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R13" t="s">
         <v>110</v>
@@ -2918,13 +2914,13 @@
         <v>112</v>
       </c>
       <c r="W13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
         <v>112</v>
       </c>
       <c r="Y13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s">
         <v>134</v>
@@ -2945,70 +2941,70 @@
         <v>118</v>
       </c>
       <c r="AJ13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s">
         <v>36</v>
       </c>
       <c r="AN13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ13" t="s">
         <v>39</v>
       </c>
       <c r="AR13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY13" t="s">
         <v>47</v>
       </c>
       <c r="BA13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB13" t="s">
         <v>142</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>143</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>144</v>
       </c>
       <c r="BD13" t="s">
         <v>52</v>
       </c>
       <c r="BE13" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF13" t="s">
         <v>145</v>
       </c>
-      <c r="BF13" t="s">
-        <v>146</v>
-      </c>
       <c r="BG13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>184</v>
       </c>
-      <c r="BH13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>185</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>186</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BP13" t="s">
         <v>187</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR13" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:75">
@@ -3016,7 +3012,7 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -3031,25 +3027,25 @@
         <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
         <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K14" t="s">
-        <v>371</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>395</v>
+        <v>370</v>
+      </c>
+      <c r="L14" t="s">
+        <v>394</v>
       </c>
       <c r="M14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3094,22 +3090,22 @@
         <v>39</v>
       </c>
       <c r="BA14" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB14" t="s">
         <v>142</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>143</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>144</v>
       </c>
       <c r="BD14" t="s">
         <v>52</v>
       </c>
       <c r="BF14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BH14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:75">
@@ -3117,7 +3113,7 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
@@ -3132,31 +3128,31 @@
         <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
         <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K15" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>395</v>
+        <v>367</v>
+      </c>
+      <c r="L15" t="s">
+        <v>394</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R15" t="s">
         <v>110</v>
@@ -3195,22 +3191,22 @@
         <v>39</v>
       </c>
       <c r="BA15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB15" t="s">
         <v>142</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>143</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>144</v>
       </c>
       <c r="BD15" t="s">
         <v>52</v>
       </c>
       <c r="BF15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BH15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:75">
@@ -3218,7 +3214,7 @@
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>102</v>
@@ -3233,31 +3229,31 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
         <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
+      </c>
+      <c r="L16" t="s">
+        <v>394</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" t="s">
         <v>110</v>
@@ -3296,70 +3292,70 @@
         <v>118</v>
       </c>
       <c r="AJ16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s">
         <v>36</v>
       </c>
       <c r="AN16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ16" t="s">
         <v>39</v>
       </c>
       <c r="AR16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY16" t="s">
         <v>47</v>
       </c>
       <c r="BA16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB16" t="s">
         <v>142</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>143</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>144</v>
       </c>
       <c r="BD16" t="s">
         <v>52</v>
       </c>
       <c r="BE16" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF16" t="s">
         <v>145</v>
       </c>
-      <c r="BF16" t="s">
-        <v>146</v>
-      </c>
       <c r="BG16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>184</v>
       </c>
-      <c r="BH16" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>185</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>186</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BP16" t="s">
         <v>187</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR16" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:75">
@@ -3367,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
         <v>102</v>
@@ -3382,31 +3378,31 @@
         <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
         <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>395</v>
+        <v>372</v>
+      </c>
+      <c r="L17" t="s">
+        <v>394</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R17" t="s">
         <v>110</v>
@@ -3445,25 +3441,25 @@
         <v>118</v>
       </c>
       <c r="AJ17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM17" t="s">
         <v>36</v>
       </c>
       <c r="AN17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ17" t="s">
         <v>39</v>
       </c>
       <c r="AR17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY17" t="s">
         <v>47</v>
@@ -3472,52 +3468,52 @@
         <v>48</v>
       </c>
       <c r="BA17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB17" t="s">
         <v>142</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>143</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>144</v>
       </c>
       <c r="BD17" t="s">
         <v>52</v>
       </c>
       <c r="BE17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF17" t="s">
         <v>145</v>
       </c>
-      <c r="BF17" t="s">
-        <v>146</v>
-      </c>
       <c r="BG17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>184</v>
       </c>
-      <c r="BH17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>185</v>
-      </c>
       <c r="BK17" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL17" t="s">
         <v>198</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BP17" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU17" t="s">
         <v>199</v>
       </c>
-      <c r="BP17" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>200</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:75">
@@ -3525,7 +3521,7 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
         <v>102</v>
@@ -3540,25 +3536,25 @@
         <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" t="s">
         <v>106</v>
       </c>
       <c r="I18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" t="s">
         <v>204</v>
       </c>
-      <c r="J18" t="s">
-        <v>205</v>
-      </c>
       <c r="K18" t="s">
-        <v>374</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>394</v>
+        <v>373</v>
+      </c>
+      <c r="L18" t="s">
+        <v>393</v>
       </c>
       <c r="M18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3605,40 +3601,40 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" t="s">
         <v>376</v>
       </c>
-      <c r="C19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
+        <v>394</v>
+      </c>
+      <c r="M19" t="s">
         <v>212</v>
-      </c>
-      <c r="K19" t="s">
-        <v>377</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="M19" t="s">
-        <v>213</v>
       </c>
       <c r="O19">
         <v>-9999</v>
@@ -3647,94 +3643,94 @@
         <v>-8888</v>
       </c>
       <c r="R19" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" t="s">
         <v>214</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>215</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>216</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>217</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>218</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>219</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>220</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>221</v>
       </c>
       <c r="AC19" t="s">
         <v>116</v>
       </c>
       <c r="AD19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE19" t="s">
         <v>222</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>223</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AJ19" t="s">
         <v>224</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>225</v>
-      </c>
       <c r="AM19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN19" t="s">
         <v>227</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AQ19" t="s">
         <v>228</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>229</v>
-      </c>
       <c r="AT19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY19" t="s">
         <v>231</v>
       </c>
-      <c r="AY19" t="s">
-        <v>232</v>
-      </c>
       <c r="BA19" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB19" t="s">
         <v>142</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>143</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>144</v>
       </c>
       <c r="BD19" t="s">
         <v>52</v>
       </c>
       <c r="BE19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF19" t="s">
         <v>145</v>
       </c>
-      <c r="BF19" t="s">
-        <v>146</v>
-      </c>
       <c r="BH19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BJ19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BO19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BP19" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR19" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>189</v>
       </c>
       <c r="BU19" t="s">
         <v>69</v>
@@ -3743,7 +3739,7 @@
         <v>70</v>
       </c>
       <c r="BW19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:75">
@@ -3751,40 +3747,40 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
         <v>206</v>
-      </c>
-      <c r="D20" t="s">
-        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>84</v>
       </c>
       <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
         <v>208</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>209</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>210</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>211</v>
       </c>
-      <c r="J20" t="s">
-        <v>212</v>
-      </c>
       <c r="K20" t="s">
-        <v>377</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>395</v>
+        <v>376</v>
+      </c>
+      <c r="L20" t="s">
+        <v>394</v>
       </c>
       <c r="M20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O20">
         <v>-9999</v>
@@ -3793,91 +3789,91 @@
         <v>-8888</v>
       </c>
       <c r="R20" t="s">
+        <v>213</v>
+      </c>
+      <c r="T20" t="s">
         <v>214</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>215</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>216</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>217</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>218</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>219</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>220</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>221</v>
       </c>
       <c r="AC20" t="s">
         <v>116</v>
       </c>
       <c r="AD20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE20" t="s">
         <v>222</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>223</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AJ20" t="s">
         <v>224</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>225</v>
       </c>
-      <c r="AL20" t="s">
-        <v>226</v>
-      </c>
       <c r="AN20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AW20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AY20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BA20" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB20" t="s">
         <v>142</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>143</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>144</v>
       </c>
       <c r="BD20" t="s">
         <v>52</v>
       </c>
       <c r="BE20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BJ20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BO20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BP20" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR20" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>189</v>
       </c>
       <c r="BU20" t="s">
         <v>69</v>
       </c>
       <c r="BW20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:75">
@@ -3885,67 +3881,67 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
         <v>239</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" t="s">
-        <v>240</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" t="s">
         <v>241</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" t="s">
         <v>243</v>
       </c>
-      <c r="J21" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>394</v>
+      <c r="L21" t="s">
+        <v>393</v>
       </c>
       <c r="M21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R21" t="s">
         <v>110</v>
       </c>
       <c r="T21" t="s">
+        <v>214</v>
+      </c>
+      <c r="V21" t="s">
         <v>215</v>
       </c>
-      <c r="V21" t="s">
-        <v>216</v>
-      </c>
       <c r="X21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA21" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB21" t="s">
         <v>353</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>354</v>
       </c>
       <c r="AC21" t="s">
         <v>116</v>
       </c>
       <c r="AE21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF21" t="s">
         <v>223</v>
       </c>
-      <c r="AF21" t="s">
-        <v>224</v>
-      </c>
       <c r="AG21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:75">
@@ -3953,37 +3949,37 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
         <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O22">
         <v>-999</v>
@@ -3995,19 +3991,19 @@
         <v>110</v>
       </c>
       <c r="T22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V22" t="s">
+        <v>249</v>
+      </c>
+      <c r="W22" t="s">
         <v>250</v>
       </c>
-      <c r="W22" t="s">
-        <v>251</v>
-      </c>
       <c r="X22" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y22" t="s">
         <v>250</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>251</v>
       </c>
       <c r="AA22" t="s">
         <v>114</v>
@@ -4022,85 +4018,85 @@
         <v>117</v>
       </c>
       <c r="AF22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL22" t="s">
         <v>253</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>254</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>255</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AQ22" t="s">
         <v>256</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>257</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AU22" t="s">
         <v>258</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AW22" t="s">
         <v>259</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>260</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>261</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>262</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>263</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>264</v>
       </c>
-      <c r="BB22" t="s">
-        <v>265</v>
-      </c>
       <c r="BC22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BD22" t="s">
         <v>52</v>
       </c>
       <c r="BE22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF22" t="s">
         <v>145</v>
       </c>
-      <c r="BF22" t="s">
-        <v>146</v>
-      </c>
       <c r="BG22" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ22" t="s">
         <v>184</v>
       </c>
-      <c r="BH22" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>185</v>
-      </c>
       <c r="BK22" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL22" t="s">
         <v>266</v>
       </c>
-      <c r="BL22" t="s">
+      <c r="BO22" t="s">
         <v>267</v>
       </c>
-      <c r="BO22" t="s">
-        <v>268</v>
-      </c>
       <c r="BP22" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR22" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>189</v>
       </c>
       <c r="BU22" t="s">
         <v>69</v>
@@ -4109,7 +4105,7 @@
         <v>70</v>
       </c>
       <c r="BW22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:75">
@@ -4117,37 +4113,37 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" t="s">
         <v>241</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="K23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O23">
         <v>-999</v>
@@ -4159,19 +4155,19 @@
         <v>110</v>
       </c>
       <c r="T23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V23" t="s">
+        <v>249</v>
+      </c>
+      <c r="W23" t="s">
         <v>250</v>
       </c>
-      <c r="W23" t="s">
-        <v>251</v>
-      </c>
       <c r="X23" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y23" t="s">
         <v>250</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>251</v>
       </c>
       <c r="AA23" t="s">
         <v>114</v>
@@ -4186,85 +4182,85 @@
         <v>117</v>
       </c>
       <c r="AF23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ23" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL23" t="s">
         <v>253</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>254</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>255</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AQ23" t="s">
         <v>256</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>257</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AU23" t="s">
         <v>258</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AW23" t="s">
         <v>259</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>260</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>261</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>262</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>263</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>264</v>
       </c>
-      <c r="BB23" t="s">
-        <v>265</v>
-      </c>
       <c r="BC23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BD23" t="s">
         <v>52</v>
       </c>
       <c r="BE23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF23" t="s">
         <v>145</v>
       </c>
-      <c r="BF23" t="s">
-        <v>146</v>
-      </c>
       <c r="BG23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ23" t="s">
         <v>184</v>
       </c>
-      <c r="BH23" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>185</v>
-      </c>
       <c r="BK23" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL23" t="s">
         <v>266</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BO23" t="s">
         <v>267</v>
       </c>
-      <c r="BO23" t="s">
-        <v>268</v>
-      </c>
       <c r="BP23" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR23" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>189</v>
       </c>
       <c r="BU23" t="s">
         <v>69</v>
@@ -4273,7 +4269,7 @@
         <v>70</v>
       </c>
       <c r="BW23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:75">
@@ -4281,40 +4277,40 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" t="s">
         <v>206</v>
-      </c>
-      <c r="D24" t="s">
-        <v>207</v>
       </c>
       <c r="E24" t="s">
         <v>86</v>
       </c>
       <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
         <v>208</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>209</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>210</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>211</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L24" t="s">
+        <v>394</v>
+      </c>
+      <c r="M24" t="s">
         <v>212</v>
-      </c>
-      <c r="K24" t="s">
-        <v>377</v>
-      </c>
-      <c r="L24" t="s">
-        <v>395</v>
-      </c>
-      <c r="M24" t="s">
-        <v>213</v>
       </c>
       <c r="O24">
         <v>-9999</v>
@@ -4323,100 +4319,100 @@
         <v>-8888</v>
       </c>
       <c r="R24" t="s">
+        <v>213</v>
+      </c>
+      <c r="T24" t="s">
         <v>214</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>215</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>216</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>217</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>218</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>219</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>220</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>221</v>
       </c>
       <c r="AC24" t="s">
         <v>116</v>
       </c>
       <c r="AD24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE24" t="s">
         <v>222</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>223</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AJ24" t="s">
         <v>224</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>225</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>226</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>227</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AQ24" t="s">
         <v>228</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>229</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AT24" t="s">
         <v>230</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AY24" t="s">
         <v>231</v>
       </c>
-      <c r="AY24" t="s">
-        <v>232</v>
-      </c>
       <c r="BA24" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB24" t="s">
         <v>142</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>143</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>144</v>
       </c>
       <c r="BD24" t="s">
         <v>52</v>
       </c>
       <c r="BE24" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF24" t="s">
         <v>145</v>
       </c>
-      <c r="BF24" t="s">
-        <v>146</v>
-      </c>
       <c r="BG24" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ24" t="s">
         <v>184</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>185</v>
-      </c>
       <c r="BO24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BP24" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR24" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>189</v>
       </c>
       <c r="BU24" t="s">
         <v>69</v>
@@ -4425,7 +4421,7 @@
         <v>70</v>
       </c>
       <c r="BW24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:75">
@@ -4433,37 +4429,37 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s">
         <v>245</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" t="s">
-        <v>246</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" t="s">
         <v>247</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>248</v>
       </c>
-      <c r="I25" t="s">
-        <v>249</v>
-      </c>
       <c r="K25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O25">
         <v>-999</v>
@@ -4472,25 +4468,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R25" t="s">
         <v>110</v>
       </c>
       <c r="V25" t="s">
+        <v>249</v>
+      </c>
+      <c r="W25" t="s">
         <v>250</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z25" t="s">
         <v>251</v>
-      </c>
-      <c r="X25" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>252</v>
       </c>
       <c r="AA25" t="s">
         <v>114</v>
@@ -4505,85 +4501,85 @@
         <v>117</v>
       </c>
       <c r="AF25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ25" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL25" t="s">
         <v>253</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>254</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>255</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AQ25" t="s">
         <v>256</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>257</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AU25" t="s">
         <v>258</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AW25" t="s">
         <v>259</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>260</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>261</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>262</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>263</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>264</v>
       </c>
-      <c r="BB25" t="s">
-        <v>265</v>
-      </c>
       <c r="BC25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BD25" t="s">
         <v>52</v>
       </c>
       <c r="BE25" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF25" t="s">
         <v>145</v>
       </c>
-      <c r="BF25" t="s">
-        <v>146</v>
-      </c>
       <c r="BG25" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ25" t="s">
         <v>184</v>
       </c>
-      <c r="BH25" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>185</v>
-      </c>
       <c r="BK25" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL25" t="s">
         <v>266</v>
       </c>
-      <c r="BL25" t="s">
+      <c r="BO25" t="s">
         <v>267</v>
       </c>
-      <c r="BO25" t="s">
-        <v>268</v>
-      </c>
       <c r="BP25" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR25" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>189</v>
       </c>
       <c r="BU25" t="s">
         <v>69</v>
@@ -4597,40 +4593,40 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
         <v>206</v>
-      </c>
-      <c r="D26" t="s">
-        <v>207</v>
       </c>
       <c r="E26" t="s">
         <v>87</v>
       </c>
       <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
         <v>208</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>209</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>210</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>211</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>376</v>
+      </c>
+      <c r="L26" t="s">
+        <v>394</v>
+      </c>
+      <c r="M26" t="s">
         <v>212</v>
-      </c>
-      <c r="K26" t="s">
-        <v>377</v>
-      </c>
-      <c r="L26" t="s">
-        <v>395</v>
-      </c>
-      <c r="M26" t="s">
-        <v>213</v>
       </c>
       <c r="O26">
         <v>-9999</v>
@@ -4639,94 +4635,94 @@
         <v>-8888</v>
       </c>
       <c r="R26" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" t="s">
         <v>214</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>215</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>216</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>217</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>218</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>219</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>220</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>221</v>
       </c>
       <c r="AC26" t="s">
         <v>116</v>
       </c>
       <c r="AD26" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE26" t="s">
         <v>222</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>223</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AJ26" t="s">
         <v>224</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>225</v>
-      </c>
       <c r="AM26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN26" t="s">
         <v>227</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AQ26" t="s">
         <v>228</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>229</v>
-      </c>
       <c r="AT26" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY26" t="s">
         <v>231</v>
       </c>
-      <c r="AY26" t="s">
-        <v>232</v>
-      </c>
       <c r="BA26" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB26" t="s">
         <v>142</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>143</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>144</v>
       </c>
       <c r="BD26" t="s">
         <v>52</v>
       </c>
       <c r="BE26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF26" t="s">
         <v>145</v>
       </c>
-      <c r="BF26" t="s">
-        <v>146</v>
-      </c>
       <c r="BG26" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ26" t="s">
         <v>184</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>185</v>
-      </c>
       <c r="BO26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BP26" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR26" t="s">
         <v>188</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>189</v>
       </c>
       <c r="BU26" t="s">
         <v>69</v>
@@ -4735,7 +4731,7 @@
         <v>70</v>
       </c>
       <c r="BW26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:75">
@@ -4743,64 +4739,64 @@
         <v>100</v>
       </c>
       <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
         <v>275</v>
-      </c>
-      <c r="C27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" t="s">
-        <v>276</v>
       </c>
       <c r="E27" t="s">
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" t="s">
         <v>277</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>278</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>279</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>380</v>
+      </c>
+      <c r="L27" t="s">
+        <v>394</v>
+      </c>
+      <c r="M27" t="s">
+        <v>396</v>
+      </c>
+      <c r="O27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
-        <v>381</v>
-      </c>
-      <c r="L27" t="s">
-        <v>395</v>
-      </c>
-      <c r="M27" t="s">
-        <v>397</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>281</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>282</v>
       </c>
       <c r="R27" t="s">
         <v>110</v>
       </c>
       <c r="T27" t="s">
+        <v>282</v>
+      </c>
+      <c r="V27" t="s">
         <v>283</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>284</v>
       </c>
-      <c r="W27" t="s">
-        <v>285</v>
-      </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z27" t="s">
         <v>23</v>
@@ -4815,10 +4811,10 @@
         <v>116</v>
       </c>
       <c r="AE27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s">
         <v>36</v>
@@ -4829,64 +4825,64 @@
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
         <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" t="s">
         <v>277</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>278</v>
       </c>
-      <c r="I28" t="s">
-        <v>279</v>
-      </c>
       <c r="J28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O28" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q28" t="s">
         <v>281</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>282</v>
       </c>
       <c r="R28" t="s">
         <v>110</v>
       </c>
       <c r="T28" t="s">
+        <v>282</v>
+      </c>
+      <c r="V28" t="s">
         <v>283</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>284</v>
       </c>
-      <c r="W28" t="s">
-        <v>285</v>
-      </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z28" t="s">
         <v>23</v>
@@ -4901,16 +4897,16 @@
         <v>116</v>
       </c>
       <c r="AD28" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM28" t="s">
         <v>289</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:75">
@@ -4918,58 +4914,58 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" t="s">
         <v>277</v>
       </c>
-      <c r="H29" t="s">
-        <v>278</v>
-      </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R29" t="s">
         <v>110</v>
       </c>
       <c r="V29" t="s">
+        <v>292</v>
+      </c>
+      <c r="W29" t="s">
         <v>293</v>
       </c>
-      <c r="W29" t="s">
+      <c r="Z29" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA29" t="s">
         <v>294</v>
       </c>
-      <c r="Z29" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>295</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>296</v>
       </c>
       <c r="AC29" t="s">
         <v>116</v>
@@ -4978,37 +4974,37 @@
         <v>118</v>
       </c>
       <c r="AM29" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN29" t="s">
         <v>297</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AO29" t="s">
         <v>298</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AP29" t="s">
         <v>299</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>300</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AY29" t="s">
         <v>301</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="BA29" t="s">
         <v>302</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>303</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD29" t="s">
         <v>304</v>
       </c>
-      <c r="BC29" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD29" t="s">
+      <c r="BE29" t="s">
         <v>305</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>306</v>
       </c>
       <c r="BF29" t="s">
         <v>54</v>
@@ -5023,75 +5019,75 @@
         <v>58</v>
       </c>
       <c r="BQ29" t="s">
+        <v>306</v>
+      </c>
+      <c r="BR29" t="s">
         <v>307</v>
       </c>
-      <c r="BR29" t="s">
-        <v>308</v>
-      </c>
     </row>
-    <row r="30" spans="1:75" ht="15.5" customHeight="1">
+    <row r="30" spans="1:75" ht="15.45" customHeight="1">
       <c r="A30" t="s">
         <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
         <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" t="s">
         <v>277</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>278</v>
       </c>
-      <c r="I30" t="s">
-        <v>279</v>
-      </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q30" t="s">
         <v>281</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>282</v>
       </c>
       <c r="R30" t="s">
         <v>110</v>
       </c>
       <c r="T30" t="s">
+        <v>282</v>
+      </c>
+      <c r="V30" t="s">
         <v>283</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>284</v>
       </c>
-      <c r="W30" t="s">
-        <v>285</v>
-      </c>
       <c r="X30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z30" t="s">
         <v>23</v>
@@ -5106,10 +5102,10 @@
         <v>116</v>
       </c>
       <c r="AD30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s">
         <v>118</v>
@@ -5123,64 +5119,64 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" t="s">
         <v>277</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>278</v>
       </c>
-      <c r="I31" t="s">
-        <v>279</v>
-      </c>
       <c r="J31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q31" t="s">
         <v>281</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>282</v>
       </c>
       <c r="R31" t="s">
         <v>110</v>
       </c>
       <c r="T31" t="s">
+        <v>282</v>
+      </c>
+      <c r="V31" t="s">
         <v>283</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>284</v>
       </c>
-      <c r="W31" t="s">
-        <v>285</v>
-      </c>
       <c r="X31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z31" t="s">
         <v>23</v>
@@ -5195,16 +5191,16 @@
         <v>116</v>
       </c>
       <c r="AD31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s">
         <v>118</v>
       </c>
       <c r="AM31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:75">
@@ -5212,52 +5208,52 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" t="s">
         <v>277</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>278</v>
       </c>
-      <c r="I32" t="s">
-        <v>279</v>
-      </c>
       <c r="K32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R32" t="s">
         <v>110</v>
       </c>
       <c r="V32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA32" t="s">
         <v>114</v>
@@ -5272,7 +5268,7 @@
         <v>118</v>
       </c>
       <c r="AM32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:74">
@@ -5280,64 +5276,64 @@
         <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
         <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H33" t="s">
         <v>277</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>278</v>
       </c>
-      <c r="I33" t="s">
-        <v>279</v>
-      </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q33" t="s">
         <v>281</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>282</v>
       </c>
       <c r="R33" t="s">
         <v>110</v>
       </c>
       <c r="T33" t="s">
+        <v>282</v>
+      </c>
+      <c r="V33" t="s">
         <v>283</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>284</v>
       </c>
-      <c r="W33" t="s">
-        <v>285</v>
-      </c>
       <c r="X33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z33" t="s">
         <v>23</v>
@@ -5352,16 +5348,16 @@
         <v>116</v>
       </c>
       <c r="AD33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s">
         <v>118</v>
       </c>
       <c r="AM33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:74">
@@ -5369,52 +5365,52 @@
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
         <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
+        <v>276</v>
+      </c>
+      <c r="H34" t="s">
         <v>277</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>278</v>
       </c>
-      <c r="I34" t="s">
-        <v>279</v>
-      </c>
       <c r="K34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R34" t="s">
         <v>110</v>
       </c>
       <c r="V34" t="s">
+        <v>283</v>
+      </c>
+      <c r="W34" t="s">
         <v>284</v>
-      </c>
-      <c r="W34" t="s">
-        <v>285</v>
       </c>
       <c r="AA34" t="s">
         <v>114</v>
@@ -5429,7 +5425,7 @@
         <v>118</v>
       </c>
       <c r="AM34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:74">
@@ -5437,64 +5433,64 @@
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
         <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G35" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" t="s">
         <v>277</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>278</v>
       </c>
-      <c r="I35" t="s">
-        <v>279</v>
-      </c>
       <c r="J35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O35" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q35" t="s">
         <v>281</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>282</v>
       </c>
       <c r="R35" t="s">
         <v>110</v>
       </c>
       <c r="T35" t="s">
+        <v>282</v>
+      </c>
+      <c r="V35" t="s">
         <v>283</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>284</v>
       </c>
-      <c r="W35" t="s">
-        <v>285</v>
-      </c>
       <c r="X35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z35" t="s">
         <v>23</v>
@@ -5509,7 +5505,7 @@
         <v>116</v>
       </c>
       <c r="AE35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s">
         <v>118</v>
@@ -5523,64 +5519,64 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" t="s">
         <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
+        <v>276</v>
+      </c>
+      <c r="H36" t="s">
         <v>277</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>278</v>
       </c>
-      <c r="I36" t="s">
-        <v>279</v>
-      </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O36" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q36" t="s">
         <v>281</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>282</v>
       </c>
       <c r="R36" t="s">
         <v>110</v>
       </c>
       <c r="T36" t="s">
+        <v>282</v>
+      </c>
+      <c r="V36" t="s">
         <v>283</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>284</v>
       </c>
-      <c r="W36" t="s">
-        <v>285</v>
-      </c>
       <c r="X36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z36" t="s">
         <v>23</v>
@@ -5595,58 +5591,58 @@
         <v>116</v>
       </c>
       <c r="AE36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s">
         <v>118</v>
       </c>
       <c r="AM36" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>321</v>
       </c>
-      <c r="AQ36" t="s">
+      <c r="AX36" t="s">
         <v>322</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AY36" t="s">
+        <v>231</v>
+      </c>
+      <c r="BA36" t="s">
         <v>323</v>
       </c>
-      <c r="AY36" t="s">
-        <v>232</v>
-      </c>
-      <c r="BA36" t="s">
+      <c r="BB36" t="s">
         <v>324</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BC36" t="s">
         <v>325</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BD36" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE36" t="s">
         <v>326</v>
       </c>
-      <c r="BD36" t="s">
-        <v>305</v>
-      </c>
-      <c r="BE36" t="s">
+      <c r="BF36" t="s">
         <v>327</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>328</v>
       </c>
       <c r="BG36" t="s">
         <v>55</v>
       </c>
       <c r="BH36" t="s">
+        <v>328</v>
+      </c>
+      <c r="BQ36" t="s">
         <v>329</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BR36" t="s">
         <v>330</v>
       </c>
-      <c r="BR36" t="s">
+      <c r="BU36" t="s">
         <v>331</v>
       </c>
-      <c r="BU36" t="s">
+      <c r="BV36" t="s">
         <v>332</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:74">
@@ -5654,64 +5650,64 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
         <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I37" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" t="s">
         <v>335</v>
       </c>
-      <c r="H37" t="s">
-        <v>278</v>
-      </c>
-      <c r="I37" t="s">
-        <v>279</v>
-      </c>
-      <c r="J37" t="s">
-        <v>336</v>
-      </c>
       <c r="K37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O37" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q37" t="s">
         <v>281</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>282</v>
       </c>
       <c r="R37" t="s">
         <v>110</v>
       </c>
       <c r="T37" t="s">
+        <v>282</v>
+      </c>
+      <c r="V37" t="s">
         <v>283</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>284</v>
       </c>
-      <c r="W37" t="s">
-        <v>285</v>
-      </c>
       <c r="X37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z37" t="s">
         <v>23</v>
@@ -5726,55 +5722,55 @@
         <v>116</v>
       </c>
       <c r="AD37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s">
         <v>118</v>
       </c>
       <c r="AM37" t="s">
+        <v>336</v>
+      </c>
+      <c r="AQ37" t="s">
         <v>337</v>
       </c>
-      <c r="AQ37" t="s">
+      <c r="AS37" t="s">
         <v>338</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="AY37" t="s">
         <v>339</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="BA37" t="s">
         <v>340</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BB37" t="s">
         <v>341</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BC37" t="s">
         <v>342</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BD37" t="s">
         <v>343</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BE37" t="s">
         <v>344</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BF37" t="s">
         <v>345</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BG37" t="s">
         <v>346</v>
       </c>
-      <c r="BG37" t="s">
+      <c r="BH37" t="s">
         <v>347</v>
       </c>
-      <c r="BH37" t="s">
+      <c r="BJ37" t="s">
         <v>348</v>
       </c>
-      <c r="BJ37" t="s">
+      <c r="BQ37" t="s">
         <v>349</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:74">
@@ -5782,64 +5778,64 @@
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
         <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" t="s">
         <v>278</v>
       </c>
-      <c r="I38" t="s">
-        <v>279</v>
-      </c>
       <c r="J38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O38" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q38" t="s">
         <v>281</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>282</v>
       </c>
       <c r="R38" t="s">
         <v>110</v>
       </c>
       <c r="T38" t="s">
+        <v>282</v>
+      </c>
+      <c r="V38" t="s">
         <v>283</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>284</v>
       </c>
-      <c r="W38" t="s">
-        <v>285</v>
-      </c>
       <c r="X38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z38" t="s">
         <v>23</v>
@@ -5854,13 +5850,13 @@
         <v>116</v>
       </c>
       <c r="AE38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s">
         <v>118</v>
       </c>
       <c r="AM38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
